--- a/revenue_analysis_current.xlsx
+++ b/revenue_analysis_current.xlsx
@@ -513,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1495"/>
+  <dimension ref="A1:F1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44694,26 +44694,26 @@
       </c>
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Monica Margineanu</t>
+          <t>Alina Afr</t>
         </is>
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pensat simplu- Întreținere </t>
+          <t>Pure Solution- tratament facial de curățare in profunzime și extracție</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>Pensat</t>
+          <t>Tratament</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
         <is>
-          <t>Sprâncene</t>
+          <t>Tratamente</t>
         </is>
       </c>
       <c r="F1479" s="2" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
     </row>
     <row r="1480">
@@ -44724,26 +44724,26 @@
       </c>
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Alina Ruxanda</t>
+          <t>Monica Margineanu</t>
         </is>
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Epilat inghinal total</t>
+          <t xml:space="preserve">Pensat simplu- Întreținere </t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>Epilat</t>
+          <t>Pensat</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>Epilare</t>
+          <t>Sprâncene</t>
         </is>
       </c>
       <c r="F1480" s="2" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1481">
@@ -44754,47 +44754,47 @@
       </c>
       <c r="B1481" t="inlineStr">
         <is>
-          <t>Maria Velica</t>
+          <t>Alina Ruxanda</t>
         </is>
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Pensat formă (Prima ședință)</t>
+          <t>Epilat inghinal total</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>Pensat</t>
+          <t>Epilat</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
         <is>
-          <t>Sprâncene</t>
+          <t>Epilare</t>
         </is>
       </c>
       <c r="F1481" s="2" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
-          <t>2026-01-09</t>
+          <t>2026-01-08</t>
         </is>
       </c>
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Adelina Nicholl</t>
+          <t>Maria Velica</t>
         </is>
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Laminare sprâncene&amp;Vopsit</t>
+          <t>Pensat formă (Prima ședință)</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>Laminare</t>
+          <t>Pensat</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
@@ -44803,7 +44803,7 @@
         </is>
       </c>
       <c r="F1482" s="2" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1483">
@@ -44814,26 +44814,26 @@
       </c>
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Madalina Iacob</t>
+          <t>Adelina Nicholl</t>
         </is>
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Epilat Full Body</t>
+          <t>Laminare sprâncene&amp;Vopsit</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>Epilat</t>
+          <t>Laminare</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>Epilare</t>
+          <t>Sprâncene</t>
         </is>
       </c>
       <c r="F1483" s="2" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="1484">
@@ -44849,21 +44849,21 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>ProBrows</t>
+          <t>Epilat Full Body</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>ProBrows</t>
+          <t>Epilat</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>Sprâncene</t>
+          <t>Epilare</t>
         </is>
       </c>
       <c r="F1484" s="2" t="n">
-        <v>90</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1485">
@@ -44874,26 +44874,26 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Anca Georgiana</t>
+          <t>Madalina Iacob</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Epilat inghinal total</t>
+          <t>ProBrows</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>Epilat</t>
+          <t>ProBrows</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>Epilare</t>
+          <t>Sprâncene</t>
         </is>
       </c>
       <c r="F1485" s="2" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1486">
@@ -44909,7 +44909,7 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Epilat abdomen</t>
+          <t>Epilat inghinal total</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
@@ -44923,7 +44923,7 @@
         </is>
       </c>
       <c r="F1486" s="2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1487">
@@ -44939,7 +44939,7 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Epilat brațe</t>
+          <t>Epilat abdomen</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
@@ -44964,12 +44964,12 @@
       </c>
       <c r="B1488" t="inlineStr">
         <is>
-          <t>Lavinia Toma-Tumbar</t>
+          <t>Anca Georgiana</t>
         </is>
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Epilat inghinal total</t>
+          <t>Epilat brațe</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
@@ -44983,7 +44983,7 @@
         </is>
       </c>
       <c r="F1488" s="2" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1489">
@@ -44999,7 +44999,7 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Epilat fese </t>
+          <t>Epilat inghinal total</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
@@ -45013,7 +45013,7 @@
         </is>
       </c>
       <c r="F1489" s="2" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1490">
@@ -45024,12 +45024,12 @@
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Alina</t>
+          <t>Lavinia Toma-Tumbar</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Epilat Full Body</t>
+          <t xml:space="preserve">Epilat fese </t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
@@ -45043,7 +45043,7 @@
         </is>
       </c>
       <c r="F1490" s="2" t="n">
-        <v>220</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1491">
@@ -45059,51 +45059,51 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pensat simplu- Întreținere </t>
+          <t>Epilat Full Body</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>Pensat</t>
+          <t>Epilat</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>Sprâncene</t>
+          <t>Epilare</t>
         </is>
       </c>
       <c r="F1491" s="2" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1492">
       <c r="A1492" t="inlineStr">
         <is>
-          <t>2026-01-10</t>
+          <t>2026-01-09</t>
         </is>
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>Cristina Prez</t>
+          <t>Alina</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Microneedling DermaPen</t>
+          <t xml:space="preserve">Pensat simplu- Întreținere </t>
         </is>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>Microneedling</t>
+          <t>Pensat</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>Tratamente</t>
+          <t>Sprâncene</t>
         </is>
       </c>
       <c r="F1492" s="2" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
     </row>
     <row r="1493">
@@ -45114,26 +45114,26 @@
       </c>
       <c r="B1493" t="inlineStr">
         <is>
-          <t>Andreea Parashiv</t>
+          <t>Cristina Prez</t>
         </is>
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pensat simplu- Întreținere </t>
+          <t>Microneedling DermaPen</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>Pensat</t>
+          <t>Microneedling</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>Sprâncene</t>
+          <t>Tratamente</t>
         </is>
       </c>
       <c r="F1493" s="2" t="n">
-        <v>50</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1494">
@@ -45144,7 +45144,7 @@
       </c>
       <c r="B1494" t="inlineStr">
         <is>
-          <t>Daiana Stefan</t>
+          <t>Andreea Parashiv</t>
         </is>
       </c>
       <c r="C1494" t="inlineStr">
@@ -45193,6 +45193,36 @@
         </is>
       </c>
       <c r="F1495" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>Daiana Stefan</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pensat simplu- Întreținere </t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>Pensat</t>
+        </is>
+      </c>
+      <c r="E1496" t="inlineStr">
+        <is>
+          <t>Sprâncene</t>
+        </is>
+      </c>
+      <c r="F1496" s="2" t="n">
         <v>50</v>
       </c>
     </row>
@@ -45296,10 +45326,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="13" t="n">
-        <v>0.36</v>
+        <v>0.3592</v>
       </c>
       <c r="H2" s="13" t="n">
-        <v>0.4618</v>
+        <v>0.4615</v>
       </c>
       <c r="I2" s="9" t="n">
         <v>258.79</v>
@@ -45327,10 +45357,10 @@
         <v>12</v>
       </c>
       <c r="G3" s="13" t="n">
-        <v>0.339</v>
+        <v>0.3382</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>0.4505</v>
+        <v>0.4502</v>
       </c>
       <c r="I3" s="9" t="n">
         <v>343.21</v>
@@ -45343,28 +45373,28 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>36120</v>
+        <v>36390</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>284.41</v>
+        <v>284.3</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>9</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>0.2973</v>
+        <v>0.2988</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.0856</v>
       </c>
       <c r="I4" s="9" t="n">
-        <v>539.1</v>
+        <v>535.15</v>
       </c>
     </row>
     <row r="5">
@@ -45771,22 +45801,22 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>4770</v>
+        <v>5040</v>
       </c>
       <c r="C14" s="11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>93.53</v>
+        <v>96.92</v>
       </c>
       <c r="E14" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-0.5954198473282443</v>
+        <v>-0.5725190839694656</v>
       </c>
       <c r="G14" s="13" t="n">
-        <v>-0.6622516556291391</v>
+        <v>-0.6556291390728477</v>
       </c>
     </row>
     <row r="17">
@@ -46081,10 +46111,10 @@
         <v>46027</v>
       </c>
       <c r="D31" s="9" t="n">
-        <v>4770</v>
+        <v>5040</v>
       </c>
       <c r="E31" s="12" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F31" s="12" t="inlineStr">
         <is>
@@ -46195,13 +46225,13 @@
         </is>
       </c>
       <c r="B5" s="10" t="n">
-        <v>461.16</v>
+        <v>467.44</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>19830</v>
+        <v>20100</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>5.86</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="6">
@@ -48657,13 +48687,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>840</v>
+        <v>1110</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>280</v>
+        <v>277.5</v>
       </c>
     </row>
     <row r="106">
@@ -48758,10 +48788,10 @@
       </c>
       <c r="B110" s="3" t="inlineStr"/>
       <c r="C110" s="3" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>4770</v>
+        <v>5040</v>
       </c>
       <c r="E110" s="4" t="inlineStr"/>
     </row>
@@ -48839,7 +48869,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>33.8%</t>
         </is>
       </c>
     </row>
@@ -48860,7 +48890,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.3%</t>
+          <t>22.2%</t>
         </is>
       </c>
     </row>
@@ -48871,17 +48901,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>24210</v>
+        <v>24480</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>269</v>
+        <v>269.010989010989</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19.9%</t>
+          <t>20.1%</t>
         </is>
       </c>
     </row>
@@ -48902,7 +48932,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>7.5%</t>
         </is>
       </c>
     </row>
@@ -48986,7 +49016,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>1.1%</t>
         </is>
       </c>
     </row>
@@ -49018,10 +49048,10 @@
         </is>
       </c>
       <c r="B11" s="5" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>121500</v>
+        <v>121770</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr">
@@ -49100,7 +49130,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>35.9%</t>
         </is>
       </c>
     </row>
@@ -49121,7 +49151,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>33.9%</t>
+          <t>33.8%</t>
         </is>
       </c>
     </row>
@@ -49132,17 +49162,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>36120</v>
+        <v>36390</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>284.4094488188977</v>
+        <v>284.296875</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>29.7%</t>
+          <t>29.9%</t>
         </is>
       </c>
     </row>
@@ -49174,10 +49204,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>121500</v>
+        <v>121770</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr">
@@ -54773,16 +54803,16 @@
         <v>46030</v>
       </c>
       <c r="B253" s="9" t="n">
-        <v>225</v>
+        <v>495</v>
       </c>
       <c r="C253" s="10" t="n">
-        <v>56.25</v>
+        <v>99</v>
       </c>
       <c r="D253" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E253" s="11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F253" s="12" t="inlineStr">
         <is>
@@ -56700,13 +56730,13 @@
         <v>46032</v>
       </c>
       <c r="E54" s="9" t="n">
-        <v>4770</v>
+        <v>5040</v>
       </c>
       <c r="F54" s="11" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G54" s="11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H54" s="12" t="inlineStr">
         <is>
@@ -56714,10 +56744,10 @@
         </is>
       </c>
       <c r="I54" s="9" t="n">
-        <v>3266.25</v>
+        <v>3333.75</v>
       </c>
       <c r="J54" s="13" t="n">
-        <v>0.4604</v>
+        <v>0.5118</v>
       </c>
     </row>
   </sheetData>
@@ -56731,7 +56761,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I282"/>
+  <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -56856,7 +56886,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="13" t="n">
-        <v>0.9964</v>
+        <v>0.9965000000000001</v>
       </c>
       <c r="I3" s="12" t="inlineStr">
         <is>
@@ -56922,7 +56952,7 @@
         <v>26</v>
       </c>
       <c r="H5" s="13" t="n">
-        <v>0.9875</v>
+        <v>0.9876</v>
       </c>
       <c r="I5" s="12" t="inlineStr">
         <is>
@@ -56955,7 +56985,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="13" t="n">
-        <v>0.9875</v>
+        <v>0.9876</v>
       </c>
       <c r="I6" s="12" t="inlineStr">
         <is>
@@ -56988,7 +57018,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="13" t="n">
-        <v>0.9822</v>
+        <v>0.9823</v>
       </c>
       <c r="I7" s="12" t="inlineStr">
         <is>
@@ -57021,7 +57051,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="n">
-        <v>0.9786</v>
+        <v>0.9787</v>
       </c>
       <c r="I8" s="12" t="inlineStr">
         <is>
@@ -57054,7 +57084,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="n">
-        <v>0.9751</v>
+        <v>0.9752</v>
       </c>
       <c r="I9" s="12" t="inlineStr">
         <is>
@@ -57087,7 +57117,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="13" t="n">
-        <v>0.9715</v>
+        <v>0.9716</v>
       </c>
       <c r="I10" s="12" t="inlineStr">
         <is>
@@ -57120,7 +57150,7 @@
         <v>46</v>
       </c>
       <c r="H11" s="13" t="n">
-        <v>0.968</v>
+        <v>0.9681</v>
       </c>
       <c r="I11" s="12" t="inlineStr">
         <is>
@@ -57153,7 +57183,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="13" t="n">
-        <v>0.9644</v>
+        <v>0.9645</v>
       </c>
       <c r="I12" s="12" t="inlineStr">
         <is>
@@ -57186,7 +57216,7 @@
         <v>25</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>0.9609</v>
+        <v>0.961</v>
       </c>
       <c r="I13" s="12" t="inlineStr">
         <is>
@@ -57219,7 +57249,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="13" t="n">
-        <v>0.9573</v>
+        <v>0.9574</v>
       </c>
       <c r="I14" s="12" t="inlineStr">
         <is>
@@ -57252,7 +57282,7 @@
         <v>64</v>
       </c>
       <c r="H15" s="13" t="n">
-        <v>0.9537</v>
+        <v>0.9539</v>
       </c>
       <c r="I15" s="12" t="inlineStr">
         <is>
@@ -57285,7 +57315,7 @@
         <v>18</v>
       </c>
       <c r="H16" s="13" t="n">
-        <v>0.9502</v>
+        <v>0.9504</v>
       </c>
       <c r="I16" s="12" t="inlineStr">
         <is>
@@ -57318,7 +57348,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="13" t="n">
-        <v>0.9466</v>
+        <v>0.9468</v>
       </c>
       <c r="I17" s="12" t="inlineStr">
         <is>
@@ -57351,7 +57381,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="13" t="n">
-        <v>0.9431</v>
+        <v>0.9433</v>
       </c>
       <c r="I18" s="12" t="inlineStr">
         <is>
@@ -57384,7 +57414,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>0.9395</v>
+        <v>0.9397</v>
       </c>
       <c r="I19" s="12" t="inlineStr">
         <is>
@@ -57417,7 +57447,7 @@
         <v>18</v>
       </c>
       <c r="H20" s="13" t="n">
-        <v>0.9359</v>
+        <v>0.9362</v>
       </c>
       <c r="I20" s="12" t="inlineStr">
         <is>
@@ -57450,7 +57480,7 @@
         <v>75</v>
       </c>
       <c r="H21" s="13" t="n">
-        <v>0.9324</v>
+        <v>0.9326</v>
       </c>
       <c r="I21" s="12" t="inlineStr">
         <is>
@@ -57483,7 +57513,7 @@
         <v>32</v>
       </c>
       <c r="H22" s="13" t="n">
-        <v>0.9288</v>
+        <v>0.9291</v>
       </c>
       <c r="I22" s="12" t="inlineStr">
         <is>
@@ -57516,7 +57546,7 @@
         <v>68</v>
       </c>
       <c r="H23" s="13" t="n">
-        <v>0.9253</v>
+        <v>0.9255</v>
       </c>
       <c r="I23" s="12" t="inlineStr">
         <is>
@@ -57527,29 +57557,29 @@
     <row r="24">
       <c r="A24" s="12" t="inlineStr">
         <is>
-          <t>Mariana Capitanescu</t>
+          <t>Laura Jianu</t>
         </is>
       </c>
       <c r="B24" s="8" t="n">
-        <v>45854</v>
+        <v>45663</v>
       </c>
       <c r="C24" s="8" t="n">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="D24" s="11" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>1165</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>52.95</v>
+        <v>48.54</v>
       </c>
       <c r="G24" s="14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H24" s="13" t="n">
-        <v>0.9199000000000001</v>
+        <v>0.9202</v>
       </c>
       <c r="I24" s="12" t="inlineStr">
         <is>
@@ -57560,29 +57590,29 @@
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Laura Jianu</t>
+          <t>Mariana Capitanescu</t>
         </is>
       </c>
       <c r="B25" s="8" t="n">
-        <v>45663</v>
+        <v>45854</v>
       </c>
       <c r="C25" s="8" t="n">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="D25" s="11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>1165</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>48.54</v>
+        <v>52.95</v>
       </c>
       <c r="G25" s="14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H25" s="13" t="n">
-        <v>0.9199000000000001</v>
+        <v>0.9202</v>
       </c>
       <c r="I25" s="12" t="inlineStr">
         <is>
@@ -57615,7 +57645,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="13" t="n">
-        <v>0.9146</v>
+        <v>0.9149</v>
       </c>
       <c r="I26" s="12" t="inlineStr">
         <is>
@@ -57648,7 +57678,7 @@
         <v>22</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>0.911</v>
+        <v>0.9113</v>
       </c>
       <c r="I27" s="12" t="inlineStr">
         <is>
@@ -57681,7 +57711,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="13" t="n">
-        <v>0.9075</v>
+        <v>0.9078000000000001</v>
       </c>
       <c r="I28" s="12" t="inlineStr">
         <is>
@@ -57714,7 +57744,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="13" t="n">
-        <v>0.9039</v>
+        <v>0.9043</v>
       </c>
       <c r="I29" s="12" t="inlineStr">
         <is>
@@ -57747,7 +57777,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="13" t="n">
-        <v>0.9004</v>
+        <v>0.9006999999999999</v>
       </c>
       <c r="I30" s="12" t="inlineStr">
         <is>
@@ -57780,7 +57810,7 @@
         <v>247</v>
       </c>
       <c r="H31" s="13" t="n">
-        <v>0.8968</v>
+        <v>0.8972</v>
       </c>
       <c r="I31" s="12" t="inlineStr">
         <is>
@@ -57813,7 +57843,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="13" t="n">
-        <v>0.8915</v>
+        <v>0.8918</v>
       </c>
       <c r="I32" s="12" t="inlineStr">
         <is>
@@ -57846,7 +57876,7 @@
         <v>190</v>
       </c>
       <c r="H33" s="13" t="n">
-        <v>0.8915</v>
+        <v>0.8918</v>
       </c>
       <c r="I33" s="12" t="inlineStr">
         <is>
@@ -57857,29 +57887,29 @@
     <row r="34">
       <c r="A34" s="12" t="inlineStr">
         <is>
-          <t>Maria Tudose</t>
+          <t>Georgiana Baduca</t>
         </is>
       </c>
       <c r="B34" s="8" t="n">
-        <v>45674</v>
+        <v>45700</v>
       </c>
       <c r="C34" s="8" t="n">
-        <v>45999</v>
+        <v>46003</v>
       </c>
       <c r="D34" s="11" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>890</v>
       </c>
       <c r="F34" s="10" t="n">
-        <v>55.62</v>
+        <v>148.33</v>
       </c>
       <c r="G34" s="14" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H34" s="13" t="n">
-        <v>0.8826000000000001</v>
+        <v>0.883</v>
       </c>
       <c r="I34" s="12" t="inlineStr">
         <is>
@@ -57890,29 +57920,29 @@
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Georgiana Baduca</t>
+          <t>Maria Tudose</t>
         </is>
       </c>
       <c r="B35" s="8" t="n">
-        <v>45700</v>
+        <v>45674</v>
       </c>
       <c r="C35" s="8" t="n">
-        <v>46003</v>
+        <v>45999</v>
       </c>
       <c r="D35" s="11" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>890</v>
       </c>
       <c r="F35" s="10" t="n">
-        <v>148.33</v>
+        <v>55.62</v>
       </c>
       <c r="G35" s="14" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H35" s="13" t="n">
-        <v>0.8826000000000001</v>
+        <v>0.883</v>
       </c>
       <c r="I35" s="12" t="inlineStr">
         <is>
@@ -57945,7 +57975,7 @@
         <v>30</v>
       </c>
       <c r="H36" s="13" t="n">
-        <v>0.8826000000000001</v>
+        <v>0.883</v>
       </c>
       <c r="I36" s="12" t="inlineStr">
         <is>
@@ -57978,7 +58008,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="13" t="n">
-        <v>0.8754</v>
+        <v>0.8759</v>
       </c>
       <c r="I37" s="12" t="inlineStr">
         <is>
@@ -58011,7 +58041,7 @@
         <v>256</v>
       </c>
       <c r="H38" s="13" t="n">
-        <v>0.8719</v>
+        <v>0.8723</v>
       </c>
       <c r="I38" s="12" t="inlineStr">
         <is>
@@ -58044,7 +58074,7 @@
         <v>79</v>
       </c>
       <c r="H39" s="13" t="n">
-        <v>0.8683</v>
+        <v>0.8688</v>
       </c>
       <c r="I39" s="12" t="inlineStr">
         <is>
@@ -58077,7 +58107,7 @@
         <v>18</v>
       </c>
       <c r="H40" s="13" t="n">
-        <v>0.8648</v>
+        <v>0.8652</v>
       </c>
       <c r="I40" s="12" t="inlineStr">
         <is>
@@ -58110,7 +58140,7 @@
         <v>47</v>
       </c>
       <c r="H41" s="13" t="n">
-        <v>0.8612</v>
+        <v>0.8617</v>
       </c>
       <c r="I41" s="12" t="inlineStr">
         <is>
@@ -58143,7 +58173,7 @@
         <v>107</v>
       </c>
       <c r="H42" s="13" t="n">
-        <v>0.8577</v>
+        <v>0.8582</v>
       </c>
       <c r="I42" s="12" t="inlineStr">
         <is>
@@ -58176,7 +58206,7 @@
         <v>158</v>
       </c>
       <c r="H43" s="13" t="n">
-        <v>0.8541</v>
+        <v>0.8546</v>
       </c>
       <c r="I43" s="12" t="inlineStr">
         <is>
@@ -58209,7 +58239,7 @@
         <v>26</v>
       </c>
       <c r="H44" s="13" t="n">
-        <v>0.8505</v>
+        <v>0.8511</v>
       </c>
       <c r="I44" s="12" t="inlineStr">
         <is>
@@ -58242,7 +58272,7 @@
         <v>52</v>
       </c>
       <c r="H45" s="13" t="n">
-        <v>0.847</v>
+        <v>0.8475</v>
       </c>
       <c r="I45" s="12" t="inlineStr">
         <is>
@@ -58275,7 +58305,7 @@
         <v>130</v>
       </c>
       <c r="H46" s="13" t="n">
-        <v>0.8434</v>
+        <v>0.844</v>
       </c>
       <c r="I46" s="12" t="inlineStr">
         <is>
@@ -58308,7 +58338,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="13" t="n">
-        <v>0.8399</v>
+        <v>0.8404</v>
       </c>
       <c r="I47" s="12" t="inlineStr">
         <is>
@@ -58319,29 +58349,29 @@
     <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>Adelina Wizz✈️</t>
+          <t>Alex Negreanu</t>
         </is>
       </c>
       <c r="B48" s="8" t="n">
-        <v>45678</v>
+        <v>45684</v>
       </c>
       <c r="C48" s="8" t="n">
-        <v>45944</v>
+        <v>46013</v>
       </c>
       <c r="D48" s="11" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E48" s="9" t="n">
         <v>700</v>
       </c>
       <c r="F48" s="10" t="n">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="G48" s="14" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="H48" s="13" t="n">
-        <v>0.8327</v>
+        <v>0.8333</v>
       </c>
       <c r="I48" s="12" t="inlineStr">
         <is>
@@ -58352,29 +58382,29 @@
     <row r="49">
       <c r="A49" s="12" t="inlineStr">
         <is>
-          <t>Alex Negreanu</t>
+          <t>Adelina Wizz✈️</t>
         </is>
       </c>
       <c r="B49" s="8" t="n">
-        <v>45684</v>
+        <v>45678</v>
       </c>
       <c r="C49" s="8" t="n">
-        <v>46013</v>
+        <v>45944</v>
       </c>
       <c r="D49" s="11" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>700</v>
       </c>
       <c r="F49" s="10" t="n">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="G49" s="14" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="H49" s="13" t="n">
-        <v>0.8327</v>
+        <v>0.8333</v>
       </c>
       <c r="I49" s="12" t="inlineStr">
         <is>
@@ -58407,7 +58437,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="13" t="n">
-        <v>0.8327</v>
+        <v>0.8333</v>
       </c>
       <c r="I50" s="12" t="inlineStr">
         <is>
@@ -58440,7 +58470,7 @@
         <v>105</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>0.8238</v>
+        <v>0.8245</v>
       </c>
       <c r="I51" s="12" t="inlineStr">
         <is>
@@ -58473,7 +58503,7 @@
         <v>201</v>
       </c>
       <c r="H52" s="13" t="n">
-        <v>0.8238</v>
+        <v>0.8245</v>
       </c>
       <c r="I52" s="12" t="inlineStr">
         <is>
@@ -58506,7 +58536,7 @@
         <v>19</v>
       </c>
       <c r="H53" s="13" t="n">
-        <v>0.8185</v>
+        <v>0.8191000000000001</v>
       </c>
       <c r="I53" s="12" t="inlineStr">
         <is>
@@ -58539,7 +58569,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="13" t="n">
-        <v>0.8149</v>
+        <v>0.8156</v>
       </c>
       <c r="I54" s="12" t="inlineStr">
         <is>
@@ -58550,14 +58580,14 @@
     <row r="55">
       <c r="A55" s="12" t="inlineStr">
         <is>
-          <t>Karina Stroe</t>
+          <t>Lumi Toader</t>
         </is>
       </c>
       <c r="B55" s="8" t="n">
-        <v>45794</v>
+        <v>45730</v>
       </c>
       <c r="C55" s="8" t="n">
-        <v>45814</v>
+        <v>45758</v>
       </c>
       <c r="D55" s="11" t="n">
         <v>2</v>
@@ -58569,10 +58599,10 @@
         <v>320</v>
       </c>
       <c r="G55" s="14" t="n">
-        <v>218</v>
+        <v>274</v>
       </c>
       <c r="H55" s="13" t="n">
-        <v>0.8096</v>
+        <v>0.8103</v>
       </c>
       <c r="I55" s="12" t="inlineStr">
         <is>
@@ -58583,14 +58613,14 @@
     <row r="56">
       <c r="A56" s="12" t="inlineStr">
         <is>
-          <t>Lumi Toader</t>
+          <t>Karina Stroe</t>
         </is>
       </c>
       <c r="B56" s="8" t="n">
-        <v>45730</v>
+        <v>45794</v>
       </c>
       <c r="C56" s="8" t="n">
-        <v>45758</v>
+        <v>45814</v>
       </c>
       <c r="D56" s="11" t="n">
         <v>2</v>
@@ -58602,10 +58632,10 @@
         <v>320</v>
       </c>
       <c r="G56" s="14" t="n">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="H56" s="13" t="n">
-        <v>0.8096</v>
+        <v>0.8103</v>
       </c>
       <c r="I56" s="12" t="inlineStr">
         <is>
@@ -58638,7 +58668,7 @@
         <v>44</v>
       </c>
       <c r="H57" s="13" t="n">
-        <v>0.8043</v>
+        <v>0.805</v>
       </c>
       <c r="I57" s="12" t="inlineStr">
         <is>
@@ -58671,7 +58701,7 @@
         <v>180</v>
       </c>
       <c r="H58" s="13" t="n">
-        <v>0.7972</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="I58" s="12" t="inlineStr">
         <is>
@@ -58682,29 +58712,29 @@
     <row r="59">
       <c r="A59" s="12" t="inlineStr">
         <is>
-          <t>Denisa Preda</t>
+          <t>Daniela Vulpe</t>
         </is>
       </c>
       <c r="B59" s="8" t="n">
-        <v>45908</v>
+        <v>45670</v>
       </c>
       <c r="C59" s="8" t="n">
-        <v>45922</v>
+        <v>45992</v>
       </c>
       <c r="D59" s="11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E59" s="9" t="n">
         <v>600</v>
       </c>
       <c r="F59" s="10" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G59" s="14" t="n">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="H59" s="13" t="n">
-        <v>0.7972</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="I59" s="12" t="inlineStr">
         <is>
@@ -58715,29 +58745,29 @@
     <row r="60">
       <c r="A60" s="12" t="inlineStr">
         <is>
-          <t>Daniela Vulpe</t>
+          <t>Denisa Preda</t>
         </is>
       </c>
       <c r="B60" s="8" t="n">
-        <v>45670</v>
+        <v>45908</v>
       </c>
       <c r="C60" s="8" t="n">
-        <v>45992</v>
+        <v>45922</v>
       </c>
       <c r="D60" s="11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E60" s="9" t="n">
         <v>600</v>
       </c>
       <c r="F60" s="10" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="14" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H60" s="13" t="n">
-        <v>0.7972</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="I60" s="12" t="inlineStr">
         <is>
@@ -58770,7 +58800,7 @@
         <v>242</v>
       </c>
       <c r="H61" s="13" t="n">
-        <v>0.79</v>
+        <v>0.7907999999999999</v>
       </c>
       <c r="I61" s="12" t="inlineStr">
         <is>
@@ -58803,7 +58833,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="13" t="n">
-        <v>0.7865</v>
+        <v>0.7872</v>
       </c>
       <c r="I62" s="12" t="inlineStr">
         <is>
@@ -58836,7 +58866,7 @@
         <v>200</v>
       </c>
       <c r="H63" s="13" t="n">
-        <v>0.7811</v>
+        <v>0.7819</v>
       </c>
       <c r="I63" s="12" t="inlineStr">
         <is>
@@ -58869,7 +58899,7 @@
         <v>99</v>
       </c>
       <c r="H64" s="13" t="n">
-        <v>0.7811</v>
+        <v>0.7819</v>
       </c>
       <c r="I64" s="12" t="inlineStr">
         <is>
@@ -58880,14 +58910,14 @@
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Ileana Rosoiu</t>
+          <t>Karina Sisu</t>
         </is>
       </c>
       <c r="B65" s="8" t="n">
-        <v>45771</v>
+        <v>45770</v>
       </c>
       <c r="C65" s="8" t="n">
-        <v>45881</v>
+        <v>45810</v>
       </c>
       <c r="D65" s="11" t="n">
         <v>2</v>
@@ -58899,10 +58929,10 @@
         <v>280</v>
       </c>
       <c r="G65" s="14" t="n">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="H65" s="13" t="n">
-        <v>0.774</v>
+        <v>0.7748</v>
       </c>
       <c r="I65" s="12" t="inlineStr">
         <is>
@@ -58913,14 +58943,14 @@
     <row r="66">
       <c r="A66" s="12" t="inlineStr">
         <is>
-          <t>Karina Sisu</t>
+          <t>Ileana Rosoiu</t>
         </is>
       </c>
       <c r="B66" s="8" t="n">
-        <v>45770</v>
+        <v>45771</v>
       </c>
       <c r="C66" s="8" t="n">
-        <v>45810</v>
+        <v>45881</v>
       </c>
       <c r="D66" s="11" t="n">
         <v>2</v>
@@ -58932,10 +58962,10 @@
         <v>280</v>
       </c>
       <c r="G66" s="14" t="n">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="H66" s="13" t="n">
-        <v>0.774</v>
+        <v>0.7748</v>
       </c>
       <c r="I66" s="12" t="inlineStr">
         <is>
@@ -58968,7 +58998,7 @@
         <v>42</v>
       </c>
       <c r="H67" s="13" t="n">
-        <v>0.7687</v>
+        <v>0.7695</v>
       </c>
       <c r="I67" s="12" t="inlineStr">
         <is>
@@ -58979,14 +59009,14 @@
     <row r="68">
       <c r="A68" s="12" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>Iulia</t>
         </is>
       </c>
       <c r="B68" s="8" t="n">
-        <v>45939</v>
+        <v>45990</v>
       </c>
       <c r="C68" s="8" t="n">
-        <v>45954</v>
+        <v>46011</v>
       </c>
       <c r="D68" s="11" t="n">
         <v>2</v>
@@ -58998,10 +59028,10 @@
         <v>270</v>
       </c>
       <c r="G68" s="14" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H68" s="13" t="n">
-        <v>0.7598</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="I68" s="12" t="inlineStr">
         <is>
@@ -59012,14 +59042,14 @@
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Irina Iliescu</t>
+          <t>Coco</t>
         </is>
       </c>
       <c r="B69" s="8" t="n">
-        <v>45805</v>
+        <v>45939</v>
       </c>
       <c r="C69" s="8" t="n">
-        <v>45810</v>
+        <v>45954</v>
       </c>
       <c r="D69" s="11" t="n">
         <v>2</v>
@@ -59031,10 +59061,10 @@
         <v>270</v>
       </c>
       <c r="G69" s="14" t="n">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="H69" s="13" t="n">
-        <v>0.7598</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="I69" s="12" t="inlineStr">
         <is>
@@ -59067,7 +59097,7 @@
         <v>70</v>
       </c>
       <c r="H70" s="13" t="n">
-        <v>0.7598</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="I70" s="12" t="inlineStr">
         <is>
@@ -59078,14 +59108,14 @@
     <row r="71">
       <c r="A71" s="12" t="inlineStr">
         <is>
-          <t>Iulia</t>
+          <t>Irina Iliescu</t>
         </is>
       </c>
       <c r="B71" s="8" t="n">
-        <v>45990</v>
+        <v>45805</v>
       </c>
       <c r="C71" s="8" t="n">
-        <v>46011</v>
+        <v>45810</v>
       </c>
       <c r="D71" s="11" t="n">
         <v>2</v>
@@ -59097,10 +59127,10 @@
         <v>270</v>
       </c>
       <c r="G71" s="14" t="n">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="H71" s="13" t="n">
-        <v>0.7598</v>
+        <v>0.7606000000000001</v>
       </c>
       <c r="I71" s="12" t="inlineStr">
         <is>
@@ -59133,7 +59163,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="13" t="n">
-        <v>0.7491</v>
+        <v>0.75</v>
       </c>
       <c r="I72" s="12" t="inlineStr">
         <is>
@@ -59166,7 +59196,7 @@
         <v>19</v>
       </c>
       <c r="H73" s="13" t="n">
-        <v>0.7491</v>
+        <v>0.75</v>
       </c>
       <c r="I73" s="12" t="inlineStr">
         <is>
@@ -59199,7 +59229,7 @@
         <v>80</v>
       </c>
       <c r="H74" s="13" t="n">
-        <v>0.7438</v>
+        <v>0.7447</v>
       </c>
       <c r="I74" s="12" t="inlineStr">
         <is>
@@ -59232,7 +59262,7 @@
         <v>22</v>
       </c>
       <c r="H75" s="13" t="n">
-        <v>0.7402</v>
+        <v>0.7411</v>
       </c>
       <c r="I75" s="12" t="inlineStr">
         <is>
@@ -59265,7 +59295,7 @@
         <v>12</v>
       </c>
       <c r="H76" s="13" t="n">
-        <v>0.7367</v>
+        <v>0.7376</v>
       </c>
       <c r="I76" s="12" t="inlineStr">
         <is>
@@ -59298,7 +59328,7 @@
         <v>131</v>
       </c>
       <c r="H77" s="13" t="n">
-        <v>0.7313</v>
+        <v>0.7323</v>
       </c>
       <c r="I77" s="12" t="inlineStr">
         <is>
@@ -59331,7 +59361,7 @@
         <v>155</v>
       </c>
       <c r="H78" s="13" t="n">
-        <v>0.7313</v>
+        <v>0.7323</v>
       </c>
       <c r="I78" s="12" t="inlineStr">
         <is>
@@ -59364,7 +59394,7 @@
         <v>81</v>
       </c>
       <c r="H79" s="13" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="I79" s="12" t="inlineStr">
         <is>
@@ -59397,7 +59427,7 @@
         <v>42</v>
       </c>
       <c r="H80" s="13" t="n">
-        <v>0.7224</v>
+        <v>0.7234</v>
       </c>
       <c r="I80" s="12" t="inlineStr">
         <is>
@@ -59430,7 +59460,7 @@
         <v>12</v>
       </c>
       <c r="H81" s="13" t="n">
-        <v>0.7189</v>
+        <v>0.7199</v>
       </c>
       <c r="I81" s="12" t="inlineStr">
         <is>
@@ -59463,7 +59493,7 @@
         <v>25</v>
       </c>
       <c r="H82" s="13" t="n">
-        <v>0.7153</v>
+        <v>0.7163</v>
       </c>
       <c r="I82" s="12" t="inlineStr">
         <is>
@@ -59474,29 +59504,29 @@
     <row r="83">
       <c r="A83" s="12" t="inlineStr">
         <is>
-          <t>Simona Geamănu</t>
+          <t>Costache Luminita</t>
         </is>
       </c>
       <c r="B83" s="8" t="n">
-        <v>45671</v>
+        <v>45663</v>
       </c>
       <c r="C83" s="8" t="n">
-        <v>46009</v>
+        <v>45877</v>
       </c>
       <c r="D83" s="11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E83" s="9" t="n">
         <v>430</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>53.75</v>
+        <v>86</v>
       </c>
       <c r="G83" s="14" t="n">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="H83" s="13" t="n">
-        <v>0.7064</v>
+        <v>0.7074</v>
       </c>
       <c r="I83" s="12" t="inlineStr">
         <is>
@@ -59507,29 +59537,29 @@
     <row r="84">
       <c r="A84" s="12" t="inlineStr">
         <is>
-          <t>Andreea Ghita</t>
+          <t>Mihaela Panduru</t>
         </is>
       </c>
       <c r="B84" s="8" t="n">
-        <v>45678</v>
+        <v>45927</v>
       </c>
       <c r="C84" s="8" t="n">
-        <v>45979</v>
+        <v>46029</v>
       </c>
       <c r="D84" s="11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E84" s="9" t="n">
         <v>430</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>47.78</v>
+        <v>39.09</v>
       </c>
       <c r="G84" s="14" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H84" s="13" t="n">
-        <v>0.7064</v>
+        <v>0.7074</v>
       </c>
       <c r="I84" s="12" t="inlineStr">
         <is>
@@ -59540,29 +59570,29 @@
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Mihaela Panduru</t>
+          <t>Andreea Ghita</t>
         </is>
       </c>
       <c r="B85" s="8" t="n">
-        <v>45927</v>
+        <v>45678</v>
       </c>
       <c r="C85" s="8" t="n">
-        <v>46029</v>
+        <v>45979</v>
       </c>
       <c r="D85" s="11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85" s="9" t="n">
         <v>430</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>39.09</v>
+        <v>47.78</v>
       </c>
       <c r="G85" s="14" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>0.7064</v>
+        <v>0.7074</v>
       </c>
       <c r="I85" s="12" t="inlineStr">
         <is>
@@ -59573,29 +59603,29 @@
     <row r="86">
       <c r="A86" s="12" t="inlineStr">
         <is>
-          <t>Costache Luminita</t>
+          <t>Simona Geamănu</t>
         </is>
       </c>
       <c r="B86" s="8" t="n">
-        <v>45663</v>
+        <v>45671</v>
       </c>
       <c r="C86" s="8" t="n">
-        <v>45877</v>
+        <v>46009</v>
       </c>
       <c r="D86" s="11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E86" s="9" t="n">
         <v>430</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>86</v>
+        <v>53.75</v>
       </c>
       <c r="G86" s="14" t="n">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="H86" s="13" t="n">
-        <v>0.7064</v>
+        <v>0.7074</v>
       </c>
       <c r="I86" s="12" t="inlineStr">
         <is>
@@ -59628,7 +59658,7 @@
         <v>57</v>
       </c>
       <c r="H87" s="13" t="n">
-        <v>0.6975</v>
+        <v>0.6986</v>
       </c>
       <c r="I87" s="12" t="inlineStr">
         <is>
@@ -59661,7 +59691,7 @@
         <v>33</v>
       </c>
       <c r="H88" s="13" t="n">
-        <v>0.694</v>
+        <v>0.695</v>
       </c>
       <c r="I88" s="12" t="inlineStr">
         <is>
@@ -59694,7 +59724,7 @@
         <v>5</v>
       </c>
       <c r="H89" s="13" t="n">
-        <v>0.6886</v>
+        <v>0.6897</v>
       </c>
       <c r="I89" s="12" t="inlineStr">
         <is>
@@ -59727,7 +59757,7 @@
         <v>66</v>
       </c>
       <c r="H90" s="13" t="n">
-        <v>0.6886</v>
+        <v>0.6897</v>
       </c>
       <c r="I90" s="12" t="inlineStr">
         <is>
@@ -59760,7 +59790,7 @@
         <v>37</v>
       </c>
       <c r="H91" s="13" t="n">
-        <v>0.6797</v>
+        <v>0.6808999999999999</v>
       </c>
       <c r="I91" s="12" t="inlineStr">
         <is>
@@ -59793,7 +59823,7 @@
         <v>288</v>
       </c>
       <c r="H92" s="13" t="n">
-        <v>0.6797</v>
+        <v>0.6808999999999999</v>
       </c>
       <c r="I92" s="12" t="inlineStr">
         <is>
@@ -59826,7 +59856,7 @@
         <v>205</v>
       </c>
       <c r="H93" s="13" t="n">
-        <v>0.6797</v>
+        <v>0.6808999999999999</v>
       </c>
       <c r="I93" s="12" t="inlineStr">
         <is>
@@ -59837,29 +59867,29 @@
     <row r="94">
       <c r="A94" s="12" t="inlineStr">
         <is>
-          <t>Elena Madalina Stanciulescu</t>
+          <t>Sara</t>
         </is>
       </c>
       <c r="B94" s="8" t="n">
-        <v>45721</v>
+        <v>45870</v>
       </c>
       <c r="C94" s="8" t="n">
-        <v>45908</v>
+        <v>46000</v>
       </c>
       <c r="D94" s="11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E94" s="9" t="n">
         <v>385</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>128.33</v>
+        <v>55</v>
       </c>
       <c r="G94" s="14" t="n">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="H94" s="13" t="n">
-        <v>0.6708</v>
+        <v>0.672</v>
       </c>
       <c r="I94" s="12" t="inlineStr">
         <is>
@@ -59870,29 +59900,29 @@
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Elena Madalina Stanciulescu</t>
         </is>
       </c>
       <c r="B95" s="8" t="n">
-        <v>45870</v>
+        <v>45721</v>
       </c>
       <c r="C95" s="8" t="n">
-        <v>46000</v>
+        <v>45908</v>
       </c>
       <c r="D95" s="11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E95" s="9" t="n">
         <v>385</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>55</v>
+        <v>128.33</v>
       </c>
       <c r="G95" s="14" t="n">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="H95" s="13" t="n">
-        <v>0.6708</v>
+        <v>0.672</v>
       </c>
       <c r="I95" s="12" t="inlineStr">
         <is>
@@ -59925,7 +59955,7 @@
         <v>106</v>
       </c>
       <c r="H96" s="13" t="n">
-        <v>0.6655</v>
+        <v>0.6667</v>
       </c>
       <c r="I96" s="12" t="inlineStr">
         <is>
@@ -59958,7 +59988,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="13" t="n">
-        <v>0.6619</v>
+        <v>0.6631</v>
       </c>
       <c r="I97" s="12" t="inlineStr">
         <is>
@@ -59991,7 +60021,7 @@
         <v>3</v>
       </c>
       <c r="H98" s="13" t="n">
-        <v>0.6584</v>
+        <v>0.6596</v>
       </c>
       <c r="I98" s="12" t="inlineStr">
         <is>
@@ -60024,7 +60054,7 @@
         <v>42</v>
       </c>
       <c r="H99" s="13" t="n">
-        <v>0.653</v>
+        <v>0.6543</v>
       </c>
       <c r="I99" s="12" t="inlineStr">
         <is>
@@ -60057,7 +60087,7 @@
         <v>71</v>
       </c>
       <c r="H100" s="13" t="n">
-        <v>0.653</v>
+        <v>0.6543</v>
       </c>
       <c r="I100" s="12" t="inlineStr">
         <is>
@@ -60068,29 +60098,29 @@
     <row r="101">
       <c r="A101" s="12" t="inlineStr">
         <is>
-          <t>Marina Denisa</t>
+          <t>Raluca Stan</t>
         </is>
       </c>
       <c r="B101" s="8" t="n">
-        <v>45763</v>
+        <v>45701</v>
       </c>
       <c r="C101" s="8" t="n">
-        <v>45868</v>
+        <v>45939</v>
       </c>
       <c r="D101" s="11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E101" s="9" t="n">
         <v>340</v>
       </c>
       <c r="F101" s="10" t="n">
-        <v>170</v>
+        <v>48.57</v>
       </c>
       <c r="G101" s="14" t="n">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="H101" s="13" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6418</v>
       </c>
       <c r="I101" s="12" t="inlineStr">
         <is>
@@ -60101,29 +60131,29 @@
     <row r="102">
       <c r="A102" s="12" t="inlineStr">
         <is>
-          <t>Raluca Stan</t>
+          <t>Marina Denisa</t>
         </is>
       </c>
       <c r="B102" s="8" t="n">
-        <v>45701</v>
+        <v>45763</v>
       </c>
       <c r="C102" s="8" t="n">
-        <v>45939</v>
+        <v>45868</v>
       </c>
       <c r="D102" s="11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E102" s="9" t="n">
         <v>340</v>
       </c>
       <c r="F102" s="10" t="n">
-        <v>48.57</v>
+        <v>170</v>
       </c>
       <c r="G102" s="14" t="n">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="H102" s="13" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6418</v>
       </c>
       <c r="I102" s="12" t="inlineStr">
         <is>
@@ -60156,7 +60186,7 @@
         <v>5</v>
       </c>
       <c r="H103" s="13" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6418</v>
       </c>
       <c r="I103" s="12" t="inlineStr">
         <is>
@@ -60189,7 +60219,7 @@
         <v>5</v>
       </c>
       <c r="H104" s="13" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6418</v>
       </c>
       <c r="I104" s="12" t="inlineStr">
         <is>
@@ -60222,7 +60252,7 @@
         <v>45</v>
       </c>
       <c r="H105" s="13" t="n">
-        <v>0.6405999999999999</v>
+        <v>0.6418</v>
       </c>
       <c r="I105" s="12" t="inlineStr">
         <is>
@@ -60233,14 +60263,14 @@
     <row r="106">
       <c r="A106" s="12" t="inlineStr">
         <is>
-          <t>Ada Buta</t>
+          <t>Corina Nicoleta</t>
         </is>
       </c>
       <c r="B106" s="8" t="n">
-        <v>45957</v>
+        <v>45987</v>
       </c>
       <c r="C106" s="8" t="n">
-        <v>45957</v>
+        <v>45987</v>
       </c>
       <c r="D106" s="11" t="n">
         <v>2</v>
@@ -60252,10 +60282,10 @@
         <v>165</v>
       </c>
       <c r="G106" s="14" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H106" s="13" t="n">
-        <v>0.6246</v>
+        <v>0.6259</v>
       </c>
       <c r="I106" s="12" t="inlineStr">
         <is>
@@ -60266,29 +60296,29 @@
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Madalina ✔️</t>
+          <t>Cristina</t>
         </is>
       </c>
       <c r="B107" s="8" t="n">
-        <v>45995</v>
+        <v>45922</v>
       </c>
       <c r="C107" s="8" t="n">
-        <v>46020</v>
+        <v>45922</v>
       </c>
       <c r="D107" s="11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E107" s="9" t="n">
         <v>330</v>
       </c>
       <c r="F107" s="10" t="n">
-        <v>47.14</v>
+        <v>165</v>
       </c>
       <c r="G107" s="14" t="n">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H107" s="13" t="n">
-        <v>0.6246</v>
+        <v>0.6259</v>
       </c>
       <c r="I107" s="12" t="inlineStr">
         <is>
@@ -60299,14 +60329,14 @@
     <row r="108">
       <c r="A108" s="12" t="inlineStr">
         <is>
-          <t>Cristina</t>
+          <t>Ada Buta</t>
         </is>
       </c>
       <c r="B108" s="8" t="n">
-        <v>45922</v>
+        <v>45957</v>
       </c>
       <c r="C108" s="8" t="n">
-        <v>45922</v>
+        <v>45957</v>
       </c>
       <c r="D108" s="11" t="n">
         <v>2</v>
@@ -60318,10 +60348,10 @@
         <v>165</v>
       </c>
       <c r="G108" s="14" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="H108" s="13" t="n">
-        <v>0.6246</v>
+        <v>0.6259</v>
       </c>
       <c r="I108" s="12" t="inlineStr">
         <is>
@@ -60332,29 +60362,29 @@
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Corina Nicoleta</t>
+          <t>Madalina ✔️</t>
         </is>
       </c>
       <c r="B109" s="8" t="n">
-        <v>45987</v>
+        <v>45995</v>
       </c>
       <c r="C109" s="8" t="n">
-        <v>45987</v>
+        <v>46020</v>
       </c>
       <c r="D109" s="11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E109" s="9" t="n">
         <v>330</v>
       </c>
       <c r="F109" s="10" t="n">
-        <v>165</v>
+        <v>47.14</v>
       </c>
       <c r="G109" s="14" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="H109" s="13" t="n">
-        <v>0.6246</v>
+        <v>0.6259</v>
       </c>
       <c r="I109" s="12" t="inlineStr">
         <is>
@@ -60387,7 +60417,7 @@
         <v>183</v>
       </c>
       <c r="H110" s="13" t="n">
-        <v>0.6139</v>
+        <v>0.6152</v>
       </c>
       <c r="I110" s="12" t="inlineStr">
         <is>
@@ -60420,7 +60450,7 @@
         <v>12</v>
       </c>
       <c r="H111" s="13" t="n">
-        <v>0.6139</v>
+        <v>0.6152</v>
       </c>
       <c r="I111" s="12" t="inlineStr">
         <is>
@@ -60453,7 +60483,7 @@
         <v>225</v>
       </c>
       <c r="H112" s="13" t="n">
-        <v>0.605</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="I112" s="12" t="inlineStr">
         <is>
@@ -60464,29 +60494,29 @@
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Lelia Pistol</t>
+          <t>Evelyne Andreea</t>
         </is>
       </c>
       <c r="B113" s="8" t="n">
-        <v>45758</v>
+        <v>45716</v>
       </c>
       <c r="C113" s="8" t="n">
-        <v>45758</v>
+        <v>45937</v>
       </c>
       <c r="D113" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E113" s="9" t="n">
         <v>320</v>
       </c>
       <c r="F113" s="10" t="n">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="G113" s="14" t="n">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="H113" s="13" t="n">
-        <v>0.605</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="I113" s="12" t="inlineStr">
         <is>
@@ -60497,29 +60527,29 @@
     <row r="114">
       <c r="A114" s="12" t="inlineStr">
         <is>
-          <t>Evelyne Andreea</t>
+          <t>Lelia Pistol</t>
         </is>
       </c>
       <c r="B114" s="8" t="n">
-        <v>45716</v>
+        <v>45758</v>
       </c>
       <c r="C114" s="8" t="n">
-        <v>45937</v>
+        <v>45758</v>
       </c>
       <c r="D114" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E114" s="9" t="n">
         <v>320</v>
       </c>
       <c r="F114" s="10" t="n">
-        <v>64</v>
+        <v>320</v>
       </c>
       <c r="G114" s="14" t="n">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="H114" s="13" t="n">
-        <v>0.605</v>
+        <v>0.6064000000000001</v>
       </c>
       <c r="I114" s="12" t="inlineStr">
         <is>
@@ -60530,14 +60560,14 @@
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Daria Pîrvu</t>
+          <t>Raluca Coanda</t>
         </is>
       </c>
       <c r="B115" s="8" t="n">
-        <v>46003</v>
+        <v>45887</v>
       </c>
       <c r="C115" s="8" t="n">
-        <v>46003</v>
+        <v>45887</v>
       </c>
       <c r="D115" s="11" t="n">
         <v>1</v>
@@ -60549,10 +60579,10 @@
         <v>300</v>
       </c>
       <c r="G115" s="14" t="n">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="H115" s="13" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.5957</v>
       </c>
       <c r="I115" s="12" t="inlineStr">
         <is>
@@ -60585,7 +60615,7 @@
         <v>366</v>
       </c>
       <c r="H116" s="13" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.5957</v>
       </c>
       <c r="I116" s="12" t="inlineStr">
         <is>
@@ -60596,14 +60626,14 @@
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Raluca Coanda</t>
+          <t>Daria Pîrvu</t>
         </is>
       </c>
       <c r="B117" s="8" t="n">
-        <v>45887</v>
+        <v>46003</v>
       </c>
       <c r="C117" s="8" t="n">
-        <v>45887</v>
+        <v>46003</v>
       </c>
       <c r="D117" s="11" t="n">
         <v>1</v>
@@ -60615,10 +60645,10 @@
         <v>300</v>
       </c>
       <c r="G117" s="14" t="n">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="H117" s="13" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.5957</v>
       </c>
       <c r="I117" s="12" t="inlineStr">
         <is>
@@ -60651,7 +60681,7 @@
         <v>79</v>
       </c>
       <c r="H118" s="13" t="n">
-        <v>0.5854</v>
+        <v>0.5869</v>
       </c>
       <c r="I118" s="12" t="inlineStr">
         <is>
@@ -60684,7 +60714,7 @@
         <v>23</v>
       </c>
       <c r="H119" s="13" t="n">
-        <v>0.5854</v>
+        <v>0.5869</v>
       </c>
       <c r="I119" s="12" t="inlineStr">
         <is>
@@ -60695,29 +60725,29 @@
     <row r="120">
       <c r="A120" s="12" t="inlineStr">
         <is>
-          <t>Oana Ionela</t>
+          <t>Marilena Cancu</t>
         </is>
       </c>
       <c r="B120" s="8" t="n">
-        <v>45779</v>
+        <v>45878</v>
       </c>
       <c r="C120" s="8" t="n">
-        <v>45779</v>
+        <v>45878</v>
       </c>
       <c r="D120" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E120" s="9" t="n">
         <v>280</v>
       </c>
       <c r="F120" s="10" t="n">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="G120" s="14" t="n">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="H120" s="13" t="n">
-        <v>0.573</v>
+        <v>0.5745</v>
       </c>
       <c r="I120" s="12" t="inlineStr">
         <is>
@@ -60728,29 +60758,29 @@
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Camelia Barbu</t>
+          <t>Oana Ionela</t>
         </is>
       </c>
       <c r="B121" s="8" t="n">
-        <v>45671</v>
+        <v>45779</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>45735</v>
+        <v>45779</v>
       </c>
       <c r="D121" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E121" s="9" t="n">
         <v>280</v>
       </c>
       <c r="F121" s="10" t="n">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="G121" s="14" t="n">
-        <v>297</v>
+        <v>253</v>
       </c>
       <c r="H121" s="13" t="n">
-        <v>0.573</v>
+        <v>0.5745</v>
       </c>
       <c r="I121" s="12" t="inlineStr">
         <is>
@@ -60761,29 +60791,29 @@
     <row r="122">
       <c r="A122" s="12" t="inlineStr">
         <is>
-          <t>Catalina Goanta</t>
+          <t>Camelia Barbu</t>
         </is>
       </c>
       <c r="B122" s="8" t="n">
-        <v>45954</v>
+        <v>45671</v>
       </c>
       <c r="C122" s="8" t="n">
-        <v>45954</v>
+        <v>45735</v>
       </c>
       <c r="D122" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E122" s="9" t="n">
         <v>280</v>
       </c>
       <c r="F122" s="10" t="n">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="G122" s="14" t="n">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="H122" s="13" t="n">
-        <v>0.573</v>
+        <v>0.5745</v>
       </c>
       <c r="I122" s="12" t="inlineStr">
         <is>
@@ -60794,29 +60824,29 @@
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Marilena Cancu</t>
+          <t>Dna Voinea Voinea</t>
         </is>
       </c>
       <c r="B123" s="8" t="n">
-        <v>45878</v>
+        <v>45859</v>
       </c>
       <c r="C123" s="8" t="n">
-        <v>45878</v>
+        <v>45859</v>
       </c>
       <c r="D123" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E123" s="9" t="n">
         <v>280</v>
       </c>
       <c r="F123" s="10" t="n">
-        <v>56</v>
+        <v>280</v>
       </c>
       <c r="G123" s="14" t="n">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="H123" s="13" t="n">
-        <v>0.573</v>
+        <v>0.5745</v>
       </c>
       <c r="I123" s="12" t="inlineStr">
         <is>
@@ -60827,14 +60857,14 @@
     <row r="124">
       <c r="A124" s="12" t="inlineStr">
         <is>
-          <t>Dna Voinea Voinea</t>
+          <t>Catalina Goanta</t>
         </is>
       </c>
       <c r="B124" s="8" t="n">
-        <v>45859</v>
+        <v>45954</v>
       </c>
       <c r="C124" s="8" t="n">
-        <v>45859</v>
+        <v>45954</v>
       </c>
       <c r="D124" s="11" t="n">
         <v>1</v>
@@ -60846,10 +60876,10 @@
         <v>280</v>
       </c>
       <c r="G124" s="14" t="n">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="H124" s="13" t="n">
-        <v>0.573</v>
+        <v>0.5745</v>
       </c>
       <c r="I124" s="12" t="inlineStr">
         <is>
@@ -60882,7 +60912,7 @@
         <v>154</v>
       </c>
       <c r="H125" s="13" t="n">
-        <v>0.5623</v>
+        <v>0.5638</v>
       </c>
       <c r="I125" s="12" t="inlineStr">
         <is>
@@ -60893,29 +60923,29 @@
     <row r="126">
       <c r="A126" s="12" t="inlineStr">
         <is>
-          <t>Nicoleta Diaconu</t>
+          <t>Iris Florflorea</t>
         </is>
       </c>
       <c r="B126" s="8" t="n">
-        <v>46011</v>
+        <v>45856</v>
       </c>
       <c r="C126" s="8" t="n">
-        <v>46011</v>
+        <v>45887</v>
       </c>
       <c r="D126" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E126" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F126" s="10" t="n">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G126" s="14" t="n">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="H126" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I126" s="12" t="inlineStr">
         <is>
@@ -60926,14 +60956,14 @@
     <row r="127">
       <c r="A127" s="12" t="inlineStr">
         <is>
-          <t>Ion Maria</t>
+          <t>Nicoleta Diaconu</t>
         </is>
       </c>
       <c r="B127" s="8" t="n">
-        <v>45871</v>
+        <v>46011</v>
       </c>
       <c r="C127" s="8" t="n">
-        <v>45871</v>
+        <v>46011</v>
       </c>
       <c r="D127" s="11" t="n">
         <v>1</v>
@@ -60945,10 +60975,10 @@
         <v>270</v>
       </c>
       <c r="G127" s="14" t="n">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="H127" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I127" s="12" t="inlineStr">
         <is>
@@ -60959,29 +60989,29 @@
     <row r="128">
       <c r="A128" s="12" t="inlineStr">
         <is>
-          <t>Daiana Stefan</t>
+          <t>Ion Maria</t>
         </is>
       </c>
       <c r="B128" s="8" t="n">
-        <v>45981</v>
+        <v>45871</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>46032</v>
+        <v>45871</v>
       </c>
       <c r="D128" s="11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E128" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F128" s="10" t="n">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="G128" s="14" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H128" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I128" s="12" t="inlineStr">
         <is>
@@ -60992,29 +61022,29 @@
     <row r="129">
       <c r="A129" s="12" t="inlineStr">
         <is>
-          <t>Ionela Cobîrlău</t>
+          <t>Daiana Stefan</t>
         </is>
       </c>
       <c r="B129" s="8" t="n">
-        <v>45782</v>
+        <v>45981</v>
       </c>
       <c r="C129" s="8" t="n">
-        <v>46013</v>
+        <v>46032</v>
       </c>
       <c r="D129" s="11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F129" s="10" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G129" s="14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H129" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I129" s="12" t="inlineStr">
         <is>
@@ -61025,29 +61055,29 @@
     <row r="130">
       <c r="A130" s="12" t="inlineStr">
         <is>
-          <t>Mara Mara</t>
+          <t>Ionela Cobîrlău</t>
         </is>
       </c>
       <c r="B130" s="8" t="n">
-        <v>45769</v>
+        <v>45782</v>
       </c>
       <c r="C130" s="8" t="n">
-        <v>45769</v>
+        <v>46013</v>
       </c>
       <c r="D130" s="11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E130" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F130" s="10" t="n">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="G130" s="14" t="n">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="H130" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I130" s="12" t="inlineStr">
         <is>
@@ -61058,14 +61088,14 @@
     <row r="131">
       <c r="A131" s="12" t="inlineStr">
         <is>
-          <t>Rahela Dumitru</t>
+          <t>Irina Cirneanu</t>
         </is>
       </c>
       <c r="B131" s="8" t="n">
-        <v>45909</v>
+        <v>45841</v>
       </c>
       <c r="C131" s="8" t="n">
-        <v>45909</v>
+        <v>45841</v>
       </c>
       <c r="D131" s="11" t="n">
         <v>1</v>
@@ -61077,10 +61107,10 @@
         <v>270</v>
       </c>
       <c r="G131" s="14" t="n">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="H131" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I131" s="12" t="inlineStr">
         <is>
@@ -61113,7 +61143,7 @@
         <v>193</v>
       </c>
       <c r="H132" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I132" s="12" t="inlineStr">
         <is>
@@ -61124,14 +61154,14 @@
     <row r="133">
       <c r="A133" s="12" t="inlineStr">
         <is>
-          <t>Mihaela Alexandra</t>
+          <t>Marius Andrei</t>
         </is>
       </c>
       <c r="B133" s="8" t="n">
-        <v>45946</v>
+        <v>45759</v>
       </c>
       <c r="C133" s="8" t="n">
-        <v>45946</v>
+        <v>45759</v>
       </c>
       <c r="D133" s="11" t="n">
         <v>1</v>
@@ -61143,10 +61173,10 @@
         <v>270</v>
       </c>
       <c r="G133" s="14" t="n">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="H133" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I133" s="12" t="inlineStr">
         <is>
@@ -61157,14 +61187,14 @@
     <row r="134">
       <c r="A134" s="12" t="inlineStr">
         <is>
-          <t>Irina Cirneanu</t>
+          <t>Selu Salaheldin</t>
         </is>
       </c>
       <c r="B134" s="8" t="n">
-        <v>45841</v>
+        <v>45787</v>
       </c>
       <c r="C134" s="8" t="n">
-        <v>45841</v>
+        <v>45787</v>
       </c>
       <c r="D134" s="11" t="n">
         <v>1</v>
@@ -61176,10 +61206,10 @@
         <v>270</v>
       </c>
       <c r="G134" s="14" t="n">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="H134" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I134" s="12" t="inlineStr">
         <is>
@@ -61190,14 +61220,14 @@
     <row r="135">
       <c r="A135" s="12" t="inlineStr">
         <is>
-          <t>Elisa Dragomir</t>
+          <t>Mihaela Alexandra</t>
         </is>
       </c>
       <c r="B135" s="8" t="n">
-        <v>46029</v>
+        <v>45946</v>
       </c>
       <c r="C135" s="8" t="n">
-        <v>46029</v>
+        <v>45946</v>
       </c>
       <c r="D135" s="11" t="n">
         <v>1</v>
@@ -61209,10 +61239,10 @@
         <v>270</v>
       </c>
       <c r="G135" s="14" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="H135" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I135" s="12" t="inlineStr">
         <is>
@@ -61223,29 +61253,29 @@
     <row r="136">
       <c r="A136" s="12" t="inlineStr">
         <is>
-          <t>Iris Florflorea</t>
+          <t>Rahela Dumitru</t>
         </is>
       </c>
       <c r="B136" s="8" t="n">
-        <v>45856</v>
+        <v>45909</v>
       </c>
       <c r="C136" s="8" t="n">
-        <v>45887</v>
+        <v>45909</v>
       </c>
       <c r="D136" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E136" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F136" s="10" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G136" s="14" t="n">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H136" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I136" s="12" t="inlineStr">
         <is>
@@ -61256,29 +61286,29 @@
     <row r="137">
       <c r="A137" s="12" t="inlineStr">
         <is>
-          <t>Marius Andrei</t>
+          <t>Michela</t>
         </is>
       </c>
       <c r="B137" s="8" t="n">
-        <v>45759</v>
+        <v>45785</v>
       </c>
       <c r="C137" s="8" t="n">
-        <v>45759</v>
+        <v>45821</v>
       </c>
       <c r="D137" s="11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E137" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F137" s="10" t="n">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="G137" s="14" t="n">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="H137" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I137" s="12" t="inlineStr">
         <is>
@@ -61289,29 +61319,29 @@
     <row r="138">
       <c r="A138" s="12" t="inlineStr">
         <is>
-          <t>Michela</t>
+          <t>Alina Afr</t>
         </is>
       </c>
       <c r="B138" s="8" t="n">
-        <v>45785</v>
+        <v>46030</v>
       </c>
       <c r="C138" s="8" t="n">
-        <v>45821</v>
+        <v>46030</v>
       </c>
       <c r="D138" s="11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E138" s="9" t="n">
         <v>270</v>
       </c>
       <c r="F138" s="10" t="n">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="G138" s="14" t="n">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="H138" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I138" s="12" t="inlineStr">
         <is>
@@ -61322,14 +61352,14 @@
     <row r="139">
       <c r="A139" s="12" t="inlineStr">
         <is>
-          <t>Selu Salaheldin</t>
+          <t>Mara Mara</t>
         </is>
       </c>
       <c r="B139" s="8" t="n">
-        <v>45787</v>
+        <v>45769</v>
       </c>
       <c r="C139" s="8" t="n">
-        <v>45787</v>
+        <v>45769</v>
       </c>
       <c r="D139" s="11" t="n">
         <v>1</v>
@@ -61341,10 +61371,10 @@
         <v>270</v>
       </c>
       <c r="G139" s="14" t="n">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="H139" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I139" s="12" t="inlineStr">
         <is>
@@ -61377,7 +61407,7 @@
         <v>35</v>
       </c>
       <c r="H140" s="13" t="n">
-        <v>0.5338000000000001</v>
+        <v>0.5337</v>
       </c>
       <c r="I140" s="12" t="inlineStr">
         <is>
@@ -61388,29 +61418,29 @@
     <row r="141">
       <c r="A141" s="12" t="inlineStr">
         <is>
-          <t>Maria Pîrjol</t>
+          <t>Elisa Dragomir</t>
         </is>
       </c>
       <c r="B141" s="8" t="n">
-        <v>45888</v>
+        <v>46029</v>
       </c>
       <c r="C141" s="8" t="n">
-        <v>45993</v>
+        <v>46029</v>
       </c>
       <c r="D141" s="11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E141" s="9" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F141" s="10" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="G141" s="14" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="H141" s="13" t="n">
-        <v>0.5018</v>
+        <v>0.5337</v>
       </c>
       <c r="I141" s="12" t="inlineStr">
         <is>
@@ -61421,14 +61451,14 @@
     <row r="142">
       <c r="A142" s="12" t="inlineStr">
         <is>
-          <t>Taisa Calangiu</t>
+          <t>Maria Pîrjol</t>
         </is>
       </c>
       <c r="B142" s="8" t="n">
-        <v>45923</v>
+        <v>45888</v>
       </c>
       <c r="C142" s="8" t="n">
-        <v>46029</v>
+        <v>45993</v>
       </c>
       <c r="D142" s="11" t="n">
         <v>4</v>
@@ -61440,10 +61470,10 @@
         <v>65</v>
       </c>
       <c r="G142" s="14" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H142" s="13" t="n">
-        <v>0.5018</v>
+        <v>0.5</v>
       </c>
       <c r="I142" s="12" t="inlineStr">
         <is>
@@ -61476,7 +61506,7 @@
         <v>81</v>
       </c>
       <c r="H143" s="13" t="n">
-        <v>0.5018</v>
+        <v>0.5</v>
       </c>
       <c r="I143" s="12" t="inlineStr">
         <is>
@@ -61487,62 +61517,62 @@
     <row r="144">
       <c r="A144" s="12" t="inlineStr">
         <is>
-          <t>Miriam Ceapraz</t>
+          <t>Taisa Calangiu</t>
         </is>
       </c>
       <c r="B144" s="8" t="n">
-        <v>45741</v>
+        <v>45923</v>
       </c>
       <c r="C144" s="8" t="n">
-        <v>45749</v>
+        <v>46029</v>
       </c>
       <c r="D144" s="11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E144" s="9" t="n">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F144" s="10" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G144" s="14" t="n">
-        <v>283</v>
+        <v>3</v>
       </c>
       <c r="H144" s="13" t="n">
-        <v>0.4947</v>
+        <v>0.5</v>
       </c>
       <c r="I144" s="12" t="inlineStr">
         <is>
-          <t>Occasional</t>
+          <t>Regular</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="12" t="inlineStr">
         <is>
-          <t>Ghelu Bianca</t>
+          <t>Miriam Ceapraz</t>
         </is>
       </c>
       <c r="B145" s="8" t="n">
-        <v>45705</v>
+        <v>45741</v>
       </c>
       <c r="C145" s="8" t="n">
-        <v>45705</v>
+        <v>45749</v>
       </c>
       <c r="D145" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E145" s="9" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F145" s="10" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="G145" s="14" t="n">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="H145" s="13" t="n">
-        <v>0.4875</v>
+        <v>0.4929</v>
       </c>
       <c r="I145" s="12" t="inlineStr">
         <is>
@@ -61553,14 +61583,14 @@
     <row r="146">
       <c r="A146" s="12" t="inlineStr">
         <is>
-          <t>Izabella Neacsa</t>
+          <t>Ghelu Bianca</t>
         </is>
       </c>
       <c r="B146" s="8" t="n">
-        <v>45682</v>
+        <v>45705</v>
       </c>
       <c r="C146" s="8" t="n">
-        <v>45682</v>
+        <v>45705</v>
       </c>
       <c r="D146" s="11" t="n">
         <v>1</v>
@@ -61572,10 +61602,10 @@
         <v>250</v>
       </c>
       <c r="G146" s="14" t="n">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="H146" s="13" t="n">
-        <v>0.4875</v>
+        <v>0.4858</v>
       </c>
       <c r="I146" s="12" t="inlineStr">
         <is>
@@ -61608,7 +61638,7 @@
         <v>25</v>
       </c>
       <c r="H147" s="13" t="n">
-        <v>0.4875</v>
+        <v>0.4858</v>
       </c>
       <c r="I147" s="12" t="inlineStr">
         <is>
@@ -61619,29 +61649,29 @@
     <row r="148">
       <c r="A148" s="12" t="inlineStr">
         <is>
-          <t>Luiza Chirila</t>
+          <t>Izabella Neacsa</t>
         </is>
       </c>
       <c r="B148" s="8" t="n">
-        <v>45764</v>
+        <v>45682</v>
       </c>
       <c r="C148" s="8" t="n">
-        <v>45764</v>
+        <v>45682</v>
       </c>
       <c r="D148" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E148" s="9" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F148" s="10" t="n">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G148" s="14" t="n">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="H148" s="13" t="n">
-        <v>0.4804</v>
+        <v>0.4858</v>
       </c>
       <c r="I148" s="12" t="inlineStr">
         <is>
@@ -61652,29 +61682,29 @@
     <row r="149">
       <c r="A149" s="12" t="inlineStr">
         <is>
-          <t>Alexandru Tobescu</t>
+          <t>Luiza Chirila</t>
         </is>
       </c>
       <c r="B149" s="8" t="n">
-        <v>45909</v>
+        <v>45764</v>
       </c>
       <c r="C149" s="8" t="n">
-        <v>45909</v>
+        <v>45764</v>
       </c>
       <c r="D149" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E149" s="9" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F149" s="10" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G149" s="14" t="n">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="H149" s="13" t="n">
-        <v>0.4769</v>
+        <v>0.4787</v>
       </c>
       <c r="I149" s="12" t="inlineStr">
         <is>
@@ -61685,29 +61715,29 @@
     <row r="150">
       <c r="A150" s="12" t="inlineStr">
         <is>
-          <t>Andrada-Maria Zuică</t>
+          <t>Alexandru Tobescu</t>
         </is>
       </c>
       <c r="B150" s="8" t="n">
-        <v>45845</v>
+        <v>45909</v>
       </c>
       <c r="C150" s="8" t="n">
-        <v>45845</v>
+        <v>45909</v>
       </c>
       <c r="D150" s="11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E150" s="9" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F150" s="10" t="n">
-        <v>58.75</v>
+        <v>240</v>
       </c>
       <c r="G150" s="14" t="n">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="H150" s="13" t="n">
-        <v>0.4733</v>
+        <v>0.4752</v>
       </c>
       <c r="I150" s="12" t="inlineStr">
         <is>
@@ -61718,29 +61748,29 @@
     <row r="151">
       <c r="A151" s="12" t="inlineStr">
         <is>
-          <t>Anya Tita</t>
+          <t>Andrada-Maria Zuică</t>
         </is>
       </c>
       <c r="B151" s="8" t="n">
-        <v>45901</v>
+        <v>45845</v>
       </c>
       <c r="C151" s="8" t="n">
-        <v>46010</v>
+        <v>45845</v>
       </c>
       <c r="D151" s="11" t="n">
         <v>4</v>
       </c>
       <c r="E151" s="9" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F151" s="10" t="n">
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="G151" s="14" t="n">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="H151" s="13" t="n">
-        <v>0.468</v>
+        <v>0.4716</v>
       </c>
       <c r="I151" s="12" t="inlineStr">
         <is>
@@ -61751,29 +61781,29 @@
     <row r="152">
       <c r="A152" s="12" t="inlineStr">
         <is>
-          <t>Erica</t>
+          <t>Anya Tita</t>
         </is>
       </c>
       <c r="B152" s="8" t="n">
-        <v>45985</v>
+        <v>45901</v>
       </c>
       <c r="C152" s="8" t="n">
-        <v>46002</v>
+        <v>46010</v>
       </c>
       <c r="D152" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E152" s="9" t="n">
         <v>230</v>
       </c>
       <c r="F152" s="10" t="n">
-        <v>76.67</v>
+        <v>57.5</v>
       </c>
       <c r="G152" s="14" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H152" s="13" t="n">
-        <v>0.468</v>
+        <v>0.4663</v>
       </c>
       <c r="I152" s="12" t="inlineStr">
         <is>
@@ -61784,29 +61814,29 @@
     <row r="153">
       <c r="A153" s="12" t="inlineStr">
         <is>
-          <t>Martina DiMartino</t>
+          <t>Erica</t>
         </is>
       </c>
       <c r="B153" s="8" t="n">
-        <v>45748</v>
+        <v>45985</v>
       </c>
       <c r="C153" s="8" t="n">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="D153" s="11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E153" s="9" t="n">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F153" s="10" t="n">
-        <v>45</v>
+        <v>76.67</v>
       </c>
       <c r="G153" s="14" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H153" s="13" t="n">
-        <v>0.4626</v>
+        <v>0.4663</v>
       </c>
       <c r="I153" s="12" t="inlineStr">
         <is>
@@ -61817,29 +61847,29 @@
     <row r="154">
       <c r="A154" s="12" t="inlineStr">
         <is>
-          <t>Paun Daria</t>
+          <t>Martina DiMartino</t>
         </is>
       </c>
       <c r="B154" s="8" t="n">
-        <v>45814</v>
+        <v>45748</v>
       </c>
       <c r="C154" s="8" t="n">
-        <v>45814</v>
+        <v>45996</v>
       </c>
       <c r="D154" s="11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E154" s="9" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F154" s="10" t="n">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="G154" s="14" t="n">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="H154" s="13" t="n">
-        <v>0.4573</v>
+        <v>0.461</v>
       </c>
       <c r="I154" s="12" t="inlineStr">
         <is>
@@ -61850,29 +61880,29 @@
     <row r="155">
       <c r="A155" s="12" t="inlineStr">
         <is>
-          <t>Georgiana Tucă</t>
+          <t>Paun Daria</t>
         </is>
       </c>
       <c r="B155" s="8" t="n">
-        <v>45869</v>
+        <v>45814</v>
       </c>
       <c r="C155" s="8" t="n">
-        <v>45958</v>
+        <v>45814</v>
       </c>
       <c r="D155" s="11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155" s="9" t="n">
         <v>220</v>
       </c>
       <c r="F155" s="10" t="n">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="G155" s="14" t="n">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="H155" s="13" t="n">
-        <v>0.4573</v>
+        <v>0.4557</v>
       </c>
       <c r="I155" s="12" t="inlineStr">
         <is>
@@ -61883,29 +61913,29 @@
     <row r="156">
       <c r="A156" s="12" t="inlineStr">
         <is>
-          <t>Gabriela-Alisa Crișu</t>
+          <t>Georgiana Tucă</t>
         </is>
       </c>
       <c r="B156" s="8" t="n">
-        <v>45778</v>
+        <v>45869</v>
       </c>
       <c r="C156" s="8" t="n">
-        <v>46007</v>
+        <v>45958</v>
       </c>
       <c r="D156" s="11" t="n">
         <v>4</v>
       </c>
       <c r="E156" s="9" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F156" s="10" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="G156" s="14" t="n">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H156" s="13" t="n">
-        <v>0.452</v>
+        <v>0.4557</v>
       </c>
       <c r="I156" s="12" t="inlineStr">
         <is>
@@ -61916,29 +61946,29 @@
     <row r="157">
       <c r="A157" s="12" t="inlineStr">
         <is>
-          <t>Catalina Sorescu</t>
+          <t>Gabriela-Alisa Crișu</t>
         </is>
       </c>
       <c r="B157" s="8" t="n">
-        <v>45805</v>
+        <v>45778</v>
       </c>
       <c r="C157" s="8" t="n">
-        <v>46009</v>
+        <v>46007</v>
       </c>
       <c r="D157" s="11" t="n">
         <v>4</v>
       </c>
       <c r="E157" s="9" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F157" s="10" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="G157" s="14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H157" s="13" t="n">
-        <v>0.4413</v>
+        <v>0.4504</v>
       </c>
       <c r="I157" s="12" t="inlineStr">
         <is>
@@ -61949,14 +61979,14 @@
     <row r="158">
       <c r="A158" s="12" t="inlineStr">
         <is>
-          <t>Denisa Nicolae</t>
+          <t>Stefania Stf</t>
         </is>
       </c>
       <c r="B158" s="8" t="n">
-        <v>45741</v>
+        <v>45717</v>
       </c>
       <c r="C158" s="8" t="n">
-        <v>45960</v>
+        <v>46014</v>
       </c>
       <c r="D158" s="11" t="n">
         <v>4</v>
@@ -61968,10 +61998,10 @@
         <v>50</v>
       </c>
       <c r="G158" s="14" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="H158" s="13" t="n">
-        <v>0.4413</v>
+        <v>0.4397</v>
       </c>
       <c r="I158" s="12" t="inlineStr">
         <is>
@@ -61982,14 +62012,14 @@
     <row r="159">
       <c r="A159" s="12" t="inlineStr">
         <is>
-          <t>Stefania Stf</t>
+          <t>Denisa Nicolae</t>
         </is>
       </c>
       <c r="B159" s="8" t="n">
-        <v>45717</v>
+        <v>45741</v>
       </c>
       <c r="C159" s="8" t="n">
-        <v>46014</v>
+        <v>45960</v>
       </c>
       <c r="D159" s="11" t="n">
         <v>4</v>
@@ -62001,10 +62031,10 @@
         <v>50</v>
       </c>
       <c r="G159" s="14" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H159" s="13" t="n">
-        <v>0.4413</v>
+        <v>0.4397</v>
       </c>
       <c r="I159" s="12" t="inlineStr">
         <is>
@@ -62015,14 +62045,14 @@
     <row r="160">
       <c r="A160" s="12" t="inlineStr">
         <is>
-          <t>Ines Guse</t>
+          <t>Catalina Sorescu</t>
         </is>
       </c>
       <c r="B160" s="8" t="n">
-        <v>45883</v>
+        <v>45805</v>
       </c>
       <c r="C160" s="8" t="n">
-        <v>45883</v>
+        <v>46009</v>
       </c>
       <c r="D160" s="11" t="n">
         <v>4</v>
@@ -62034,10 +62064,10 @@
         <v>50</v>
       </c>
       <c r="G160" s="14" t="n">
-        <v>149</v>
+        <v>23</v>
       </c>
       <c r="H160" s="13" t="n">
-        <v>0.4413</v>
+        <v>0.4397</v>
       </c>
       <c r="I160" s="12" t="inlineStr">
         <is>
@@ -62070,7 +62100,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="13" t="n">
-        <v>0.4413</v>
+        <v>0.4397</v>
       </c>
       <c r="I161" s="12" t="inlineStr">
         <is>
@@ -62081,29 +62111,29 @@
     <row r="162">
       <c r="A162" s="12" t="inlineStr">
         <is>
-          <t>Raluca Ganea</t>
+          <t>Ines Guse</t>
         </is>
       </c>
       <c r="B162" s="8" t="n">
-        <v>45926</v>
+        <v>45883</v>
       </c>
       <c r="C162" s="8" t="n">
-        <v>46009</v>
+        <v>45883</v>
       </c>
       <c r="D162" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E162" s="9" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F162" s="10" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G162" s="14" t="n">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="H162" s="13" t="n">
-        <v>0.4253</v>
+        <v>0.4397</v>
       </c>
       <c r="I162" s="12" t="inlineStr">
         <is>
@@ -62114,14 +62144,14 @@
     <row r="163">
       <c r="A163" s="12" t="inlineStr">
         <is>
-          <t>Estera Șerban</t>
+          <t>Georgiana-Raluca Barbu</t>
         </is>
       </c>
       <c r="B163" s="8" t="n">
-        <v>45789</v>
+        <v>45856</v>
       </c>
       <c r="C163" s="8" t="n">
-        <v>45975</v>
+        <v>45992</v>
       </c>
       <c r="D163" s="11" t="n">
         <v>3</v>
@@ -62133,10 +62163,10 @@
         <v>65</v>
       </c>
       <c r="G163" s="14" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H163" s="13" t="n">
-        <v>0.4253</v>
+        <v>0.4238</v>
       </c>
       <c r="I163" s="12" t="inlineStr">
         <is>
@@ -62169,7 +62199,7 @@
         <v>32</v>
       </c>
       <c r="H164" s="13" t="n">
-        <v>0.4253</v>
+        <v>0.4238</v>
       </c>
       <c r="I164" s="12" t="inlineStr">
         <is>
@@ -62180,14 +62210,14 @@
     <row r="165">
       <c r="A165" s="12" t="inlineStr">
         <is>
-          <t>Georgiana-Raluca Barbu</t>
+          <t>Estera Șerban</t>
         </is>
       </c>
       <c r="B165" s="8" t="n">
-        <v>45856</v>
+        <v>45789</v>
       </c>
       <c r="C165" s="8" t="n">
-        <v>45992</v>
+        <v>45975</v>
       </c>
       <c r="D165" s="11" t="n">
         <v>3</v>
@@ -62199,10 +62229,10 @@
         <v>65</v>
       </c>
       <c r="G165" s="14" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H165" s="13" t="n">
-        <v>0.4253</v>
+        <v>0.4238</v>
       </c>
       <c r="I165" s="12" t="inlineStr">
         <is>
@@ -62213,29 +62243,29 @@
     <row r="166">
       <c r="A166" s="12" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Raluca Ganea</t>
         </is>
       </c>
       <c r="B166" s="8" t="n">
-        <v>45687</v>
+        <v>45926</v>
       </c>
       <c r="C166" s="8" t="n">
-        <v>45709</v>
+        <v>46009</v>
       </c>
       <c r="D166" s="11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E166" s="9" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F166" s="10" t="n">
-        <v>47.5</v>
+        <v>65</v>
       </c>
       <c r="G166" s="14" t="n">
-        <v>323</v>
+        <v>23</v>
       </c>
       <c r="H166" s="13" t="n">
-        <v>0.4146</v>
+        <v>0.4238</v>
       </c>
       <c r="I166" s="12" t="inlineStr">
         <is>
@@ -62268,7 +62298,7 @@
         <v>82</v>
       </c>
       <c r="H167" s="13" t="n">
-        <v>0.4146</v>
+        <v>0.4131</v>
       </c>
       <c r="I167" s="12" t="inlineStr">
         <is>
@@ -62279,29 +62309,29 @@
     <row r="168">
       <c r="A168" s="12" t="inlineStr">
         <is>
-          <t>Andreea Georgescu</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="B168" s="8" t="n">
-        <v>45744</v>
+        <v>45687</v>
       </c>
       <c r="C168" s="8" t="n">
-        <v>46010</v>
+        <v>45709</v>
       </c>
       <c r="D168" s="11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E168" s="9" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F168" s="10" t="n">
-        <v>90</v>
+        <v>47.5</v>
       </c>
       <c r="G168" s="14" t="n">
-        <v>22</v>
+        <v>323</v>
       </c>
       <c r="H168" s="13" t="n">
-        <v>0.4093</v>
+        <v>0.4131</v>
       </c>
       <c r="I168" s="12" t="inlineStr">
         <is>
@@ -62312,29 +62342,29 @@
     <row r="169">
       <c r="A169" s="12" t="inlineStr">
         <is>
-          <t>Simona Sirop</t>
+          <t>Andreea Georgescu</t>
         </is>
       </c>
       <c r="B169" s="8" t="n">
-        <v>46020</v>
+        <v>45744</v>
       </c>
       <c r="C169" s="8" t="n">
-        <v>46020</v>
+        <v>46010</v>
       </c>
       <c r="D169" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169" s="9" t="n">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F169" s="10" t="n">
-        <v>58.33</v>
+        <v>90</v>
       </c>
       <c r="G169" s="14" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H169" s="13" t="n">
-        <v>0.4039</v>
+        <v>0.4078</v>
       </c>
       <c r="I169" s="12" t="inlineStr">
         <is>
@@ -62345,14 +62375,14 @@
     <row r="170">
       <c r="A170" s="12" t="inlineStr">
         <is>
-          <t>Diana Vlad</t>
+          <t>Simona Sirop</t>
         </is>
       </c>
       <c r="B170" s="8" t="n">
-        <v>45679</v>
+        <v>46020</v>
       </c>
       <c r="C170" s="8" t="n">
-        <v>45679</v>
+        <v>46020</v>
       </c>
       <c r="D170" s="11" t="n">
         <v>3</v>
@@ -62364,10 +62394,10 @@
         <v>58.33</v>
       </c>
       <c r="G170" s="14" t="n">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="H170" s="13" t="n">
-        <v>0.4039</v>
+        <v>0.4025</v>
       </c>
       <c r="I170" s="12" t="inlineStr">
         <is>
@@ -62378,29 +62408,29 @@
     <row r="171">
       <c r="A171" s="12" t="inlineStr">
         <is>
-          <t>Alexandra Băluță</t>
+          <t>Diana Vlad</t>
         </is>
       </c>
       <c r="B171" s="8" t="n">
-        <v>45825</v>
+        <v>45679</v>
       </c>
       <c r="C171" s="8" t="n">
-        <v>45939</v>
+        <v>45679</v>
       </c>
       <c r="D171" s="11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E171" s="9" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F171" s="10" t="n">
-        <v>42.5</v>
+        <v>58.33</v>
       </c>
       <c r="G171" s="14" t="n">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="H171" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.4025</v>
       </c>
       <c r="I171" s="12" t="inlineStr">
         <is>
@@ -62411,29 +62441,29 @@
     <row r="172">
       <c r="A172" s="12" t="inlineStr">
         <is>
-          <t>Anne Nicolae</t>
+          <t>Alexandra Băluță</t>
         </is>
       </c>
       <c r="B172" s="8" t="n">
-        <v>45933</v>
+        <v>45825</v>
       </c>
       <c r="C172" s="8" t="n">
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="D172" s="11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E172" s="9" t="n">
         <v>170</v>
       </c>
       <c r="F172" s="10" t="n">
-        <v>170</v>
+        <v>42.5</v>
       </c>
       <c r="G172" s="14" t="n">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H172" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I172" s="12" t="inlineStr">
         <is>
@@ -62444,14 +62474,14 @@
     <row r="173">
       <c r="A173" s="12" t="inlineStr">
         <is>
-          <t>Alina Iova</t>
+          <t>Cristina Seip</t>
         </is>
       </c>
       <c r="B173" s="8" t="n">
-        <v>45791</v>
+        <v>46028</v>
       </c>
       <c r="C173" s="8" t="n">
-        <v>45791</v>
+        <v>46028</v>
       </c>
       <c r="D173" s="11" t="n">
         <v>1</v>
@@ -62463,10 +62493,10 @@
         <v>170</v>
       </c>
       <c r="G173" s="14" t="n">
-        <v>241</v>
+        <v>4</v>
       </c>
       <c r="H173" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I173" s="12" t="inlineStr">
         <is>
@@ -62477,14 +62507,14 @@
     <row r="174">
       <c r="A174" s="12" t="inlineStr">
         <is>
-          <t>Adelina Nicholl</t>
+          <t>Alina Iova</t>
         </is>
       </c>
       <c r="B174" s="8" t="n">
-        <v>46031</v>
+        <v>45791</v>
       </c>
       <c r="C174" s="8" t="n">
-        <v>46031</v>
+        <v>45791</v>
       </c>
       <c r="D174" s="11" t="n">
         <v>1</v>
@@ -62496,10 +62526,10 @@
         <v>170</v>
       </c>
       <c r="G174" s="14" t="n">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="H174" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I174" s="12" t="inlineStr">
         <is>
@@ -62510,14 +62540,14 @@
     <row r="175">
       <c r="A175" s="12" t="inlineStr">
         <is>
-          <t>Denisa Fota</t>
+          <t>Anne Nicolae</t>
         </is>
       </c>
       <c r="B175" s="8" t="n">
-        <v>46001</v>
+        <v>45933</v>
       </c>
       <c r="C175" s="8" t="n">
-        <v>46001</v>
+        <v>45933</v>
       </c>
       <c r="D175" s="11" t="n">
         <v>1</v>
@@ -62529,10 +62559,10 @@
         <v>170</v>
       </c>
       <c r="G175" s="14" t="n">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="H175" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I175" s="12" t="inlineStr">
         <is>
@@ -62565,7 +62595,7 @@
         <v>23</v>
       </c>
       <c r="H176" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I176" s="12" t="inlineStr">
         <is>
@@ -62576,14 +62606,14 @@
     <row r="177">
       <c r="A177" s="12" t="inlineStr">
         <is>
-          <t>Cristina Seip</t>
+          <t>Denisa Fota</t>
         </is>
       </c>
       <c r="B177" s="8" t="n">
-        <v>46028</v>
+        <v>46001</v>
       </c>
       <c r="C177" s="8" t="n">
-        <v>46028</v>
+        <v>46001</v>
       </c>
       <c r="D177" s="11" t="n">
         <v>1</v>
@@ -62595,10 +62625,10 @@
         <v>170</v>
       </c>
       <c r="G177" s="14" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H177" s="13" t="n">
-        <v>0.3879</v>
+        <v>0.3865</v>
       </c>
       <c r="I177" s="12" t="inlineStr">
         <is>
@@ -62609,29 +62639,29 @@
     <row r="178">
       <c r="A178" s="12" t="inlineStr">
         <is>
-          <t>Dna Georgescu</t>
+          <t>Adelina Nicholl</t>
         </is>
       </c>
       <c r="B178" s="8" t="n">
-        <v>45849</v>
+        <v>46031</v>
       </c>
       <c r="C178" s="8" t="n">
-        <v>45849</v>
+        <v>46031</v>
       </c>
       <c r="D178" s="11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E178" s="9" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F178" s="10" t="n">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="G178" s="14" t="n">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="H178" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3865</v>
       </c>
       <c r="I178" s="12" t="inlineStr">
         <is>
@@ -62642,29 +62672,29 @@
     <row r="179">
       <c r="A179" s="12" t="inlineStr">
         <is>
-          <t>Narcisa Cadar</t>
+          <t>Elena Dan</t>
         </is>
       </c>
       <c r="B179" s="8" t="n">
-        <v>45686</v>
+        <v>45979</v>
       </c>
       <c r="C179" s="8" t="n">
-        <v>45722</v>
+        <v>46030</v>
       </c>
       <c r="D179" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179" s="9" t="n">
         <v>160</v>
       </c>
       <c r="F179" s="10" t="n">
-        <v>80</v>
+        <v>53.33</v>
       </c>
       <c r="G179" s="14" t="n">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="H179" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3635</v>
       </c>
       <c r="I179" s="12" t="inlineStr">
         <is>
@@ -62675,14 +62705,14 @@
     <row r="180">
       <c r="A180" s="12" t="inlineStr">
         <is>
-          <t>Carmen Vladu</t>
+          <t>Dna Georgescu</t>
         </is>
       </c>
       <c r="B180" s="8" t="n">
-        <v>45803</v>
+        <v>45849</v>
       </c>
       <c r="C180" s="8" t="n">
-        <v>45870</v>
+        <v>45849</v>
       </c>
       <c r="D180" s="11" t="n">
         <v>4</v>
@@ -62694,10 +62724,10 @@
         <v>40</v>
       </c>
       <c r="G180" s="14" t="n">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H180" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3635</v>
       </c>
       <c r="I180" s="12" t="inlineStr">
         <is>
@@ -62708,29 +62738,29 @@
     <row r="181">
       <c r="A181" s="12" t="inlineStr">
         <is>
-          <t>Ruth Stanciu</t>
+          <t>Narcisa Cadar</t>
         </is>
       </c>
       <c r="B181" s="8" t="n">
-        <v>45983</v>
+        <v>45686</v>
       </c>
       <c r="C181" s="8" t="n">
-        <v>46009</v>
+        <v>45722</v>
       </c>
       <c r="D181" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E181" s="9" t="n">
         <v>160</v>
       </c>
       <c r="F181" s="10" t="n">
-        <v>53.33</v>
+        <v>80</v>
       </c>
       <c r="G181" s="14" t="n">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="H181" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3635</v>
       </c>
       <c r="I181" s="12" t="inlineStr">
         <is>
@@ -62741,29 +62771,29 @@
     <row r="182">
       <c r="A182" s="12" t="inlineStr">
         <is>
-          <t>Elena Dan</t>
+          <t>Carmen Vladu</t>
         </is>
       </c>
       <c r="B182" s="8" t="n">
-        <v>45979</v>
+        <v>45803</v>
       </c>
       <c r="C182" s="8" t="n">
-        <v>46030</v>
+        <v>45870</v>
       </c>
       <c r="D182" s="11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E182" s="9" t="n">
         <v>160</v>
       </c>
       <c r="F182" s="10" t="n">
-        <v>53.33</v>
+        <v>40</v>
       </c>
       <c r="G182" s="14" t="n">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="H182" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3635</v>
       </c>
       <c r="I182" s="12" t="inlineStr">
         <is>
@@ -62796,7 +62826,7 @@
         <v>3</v>
       </c>
       <c r="H183" s="13" t="n">
-        <v>0.3648</v>
+        <v>0.3635</v>
       </c>
       <c r="I183" s="12" t="inlineStr">
         <is>
@@ -62807,29 +62837,29 @@
     <row r="184">
       <c r="A184" s="12" t="inlineStr">
         <is>
-          <t>Iulia Codreș</t>
+          <t>Ruth Stanciu</t>
         </is>
       </c>
       <c r="B184" s="8" t="n">
-        <v>45824</v>
+        <v>45983</v>
       </c>
       <c r="C184" s="8" t="n">
-        <v>45824</v>
+        <v>46009</v>
       </c>
       <c r="D184" s="11" t="n">
         <v>3</v>
       </c>
       <c r="E184" s="9" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F184" s="10" t="n">
-        <v>51.67</v>
+        <v>53.33</v>
       </c>
       <c r="G184" s="14" t="n">
-        <v>208</v>
+        <v>23</v>
       </c>
       <c r="H184" s="13" t="n">
-        <v>0.3505</v>
+        <v>0.3635</v>
       </c>
       <c r="I184" s="12" t="inlineStr">
         <is>
@@ -62862,7 +62892,7 @@
         <v>189</v>
       </c>
       <c r="H185" s="13" t="n">
-        <v>0.3505</v>
+        <v>0.3493</v>
       </c>
       <c r="I185" s="12" t="inlineStr">
         <is>
@@ -62873,29 +62903,29 @@
     <row r="186">
       <c r="A186" s="12" t="inlineStr">
         <is>
-          <t>Theodora Claudia</t>
+          <t>Iulia Codreș</t>
         </is>
       </c>
       <c r="B186" s="8" t="n">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="C186" s="8" t="n">
-        <v>45847</v>
+        <v>45824</v>
       </c>
       <c r="D186" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E186" s="9" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F186" s="10" t="n">
-        <v>150</v>
+        <v>51.67</v>
       </c>
       <c r="G186" s="14" t="n">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="H186" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3493</v>
       </c>
       <c r="I186" s="12" t="inlineStr">
         <is>
@@ -62906,14 +62936,14 @@
     <row r="187">
       <c r="A187" s="12" t="inlineStr">
         <is>
-          <t>Ana Anghel</t>
+          <t>Diana Rosca</t>
         </is>
       </c>
       <c r="B187" s="8" t="n">
-        <v>46014</v>
+        <v>45995</v>
       </c>
       <c r="C187" s="8" t="n">
-        <v>46014</v>
+        <v>45995</v>
       </c>
       <c r="D187" s="11" t="n">
         <v>1</v>
@@ -62925,10 +62955,10 @@
         <v>150</v>
       </c>
       <c r="G187" s="14" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H187" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I187" s="12" t="inlineStr">
         <is>
@@ -62939,29 +62969,29 @@
     <row r="188">
       <c r="A188" s="12" t="inlineStr">
         <is>
-          <t>Andreea (Bianca)</t>
+          <t>Daria Lazaroniu</t>
         </is>
       </c>
       <c r="B188" s="8" t="n">
-        <v>45950</v>
+        <v>45764</v>
       </c>
       <c r="C188" s="8" t="n">
-        <v>45950</v>
+        <v>45764</v>
       </c>
       <c r="D188" s="11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188" s="9" t="n">
         <v>150</v>
       </c>
       <c r="F188" s="10" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G188" s="14" t="n">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="H188" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I188" s="12" t="inlineStr">
         <is>
@@ -62972,14 +63002,14 @@
     <row r="189">
       <c r="A189" s="12" t="inlineStr">
         <is>
-          <t>Cătălina Ghiță</t>
+          <t>Simona S Catrinoiu</t>
         </is>
       </c>
       <c r="B189" s="8" t="n">
-        <v>45906</v>
+        <v>45772</v>
       </c>
       <c r="C189" s="8" t="n">
-        <v>45906</v>
+        <v>45772</v>
       </c>
       <c r="D189" s="11" t="n">
         <v>1</v>
@@ -62991,10 +63021,10 @@
         <v>150</v>
       </c>
       <c r="G189" s="14" t="n">
-        <v>126</v>
+        <v>260</v>
       </c>
       <c r="H189" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I189" s="12" t="inlineStr">
         <is>
@@ -63005,29 +63035,29 @@
     <row r="190">
       <c r="A190" s="12" t="inlineStr">
         <is>
-          <t>Simona S Catrinoiu</t>
+          <t>Andreea (Bianca)</t>
         </is>
       </c>
       <c r="B190" s="8" t="n">
-        <v>45772</v>
+        <v>45950</v>
       </c>
       <c r="C190" s="8" t="n">
-        <v>45772</v>
+        <v>45950</v>
       </c>
       <c r="D190" s="11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190" s="9" t="n">
         <v>150</v>
       </c>
       <c r="F190" s="10" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G190" s="14" t="n">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="H190" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I190" s="12" t="inlineStr">
         <is>
@@ -63038,14 +63068,14 @@
     <row r="191">
       <c r="A191" s="12" t="inlineStr">
         <is>
-          <t>Carmina Răduică</t>
+          <t>Bianca Lixente</t>
         </is>
       </c>
       <c r="B191" s="8" t="n">
-        <v>45992</v>
+        <v>45939</v>
       </c>
       <c r="C191" s="8" t="n">
-        <v>45992</v>
+        <v>45939</v>
       </c>
       <c r="D191" s="11" t="n">
         <v>1</v>
@@ -63057,10 +63087,10 @@
         <v>150</v>
       </c>
       <c r="G191" s="14" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="H191" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I191" s="12" t="inlineStr">
         <is>
@@ -63071,14 +63101,14 @@
     <row r="192">
       <c r="A192" s="12" t="inlineStr">
         <is>
-          <t>Diana Rosca</t>
+          <t>Theodora Claudia</t>
         </is>
       </c>
       <c r="B192" s="8" t="n">
-        <v>45995</v>
+        <v>45847</v>
       </c>
       <c r="C192" s="8" t="n">
-        <v>45995</v>
+        <v>45847</v>
       </c>
       <c r="D192" s="11" t="n">
         <v>1</v>
@@ -63090,10 +63120,10 @@
         <v>150</v>
       </c>
       <c r="G192" s="14" t="n">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="H192" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I192" s="12" t="inlineStr">
         <is>
@@ -63104,14 +63134,14 @@
     <row r="193">
       <c r="A193" s="12" t="inlineStr">
         <is>
-          <t>Bianca Lixente</t>
+          <t>Cătălina Ghiță</t>
         </is>
       </c>
       <c r="B193" s="8" t="n">
-        <v>45939</v>
+        <v>45906</v>
       </c>
       <c r="C193" s="8" t="n">
-        <v>45939</v>
+        <v>45906</v>
       </c>
       <c r="D193" s="11" t="n">
         <v>1</v>
@@ -63123,10 +63153,10 @@
         <v>150</v>
       </c>
       <c r="G193" s="14" t="n">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="H193" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I193" s="12" t="inlineStr">
         <is>
@@ -63137,14 +63167,14 @@
     <row r="194">
       <c r="A194" s="12" t="inlineStr">
         <is>
-          <t>Daria Lazaroniu</t>
+          <t>Carmina Răduică</t>
         </is>
       </c>
       <c r="B194" s="8" t="n">
-        <v>45764</v>
+        <v>45992</v>
       </c>
       <c r="C194" s="8" t="n">
-        <v>45764</v>
+        <v>45992</v>
       </c>
       <c r="D194" s="11" t="n">
         <v>1</v>
@@ -63156,10 +63186,10 @@
         <v>150</v>
       </c>
       <c r="G194" s="14" t="n">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="H194" s="13" t="n">
-        <v>0.331</v>
+        <v>0.3298</v>
       </c>
       <c r="I194" s="12" t="inlineStr">
         <is>
@@ -63170,29 +63200,29 @@
     <row r="195">
       <c r="A195" s="12" t="inlineStr">
         <is>
-          <t>Mihaela Ciobotariu Masaj Masaj</t>
+          <t>Ana Anghel</t>
         </is>
       </c>
       <c r="B195" s="8" t="n">
-        <v>45742</v>
+        <v>46014</v>
       </c>
       <c r="C195" s="8" t="n">
-        <v>45835</v>
+        <v>46014</v>
       </c>
       <c r="D195" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E195" s="9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F195" s="10" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G195" s="14" t="n">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="H195" s="13" t="n">
-        <v>0.3114</v>
+        <v>0.3298</v>
       </c>
       <c r="I195" s="12" t="inlineStr">
         <is>
@@ -63203,29 +63233,29 @@
     <row r="196">
       <c r="A196" s="12" t="inlineStr">
         <is>
-          <t>Lorena Dumitru</t>
+          <t>Mihaela Ciobotariu Masaj Masaj</t>
         </is>
       </c>
       <c r="B196" s="8" t="n">
-        <v>45682</v>
+        <v>45742</v>
       </c>
       <c r="C196" s="8" t="n">
-        <v>45682</v>
+        <v>45835</v>
       </c>
       <c r="D196" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" s="9" t="n">
         <v>140</v>
       </c>
       <c r="F196" s="10" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="G196" s="14" t="n">
-        <v>350</v>
+        <v>197</v>
       </c>
       <c r="H196" s="13" t="n">
-        <v>0.3114</v>
+        <v>0.3103</v>
       </c>
       <c r="I196" s="12" t="inlineStr">
         <is>
@@ -63236,29 +63266,29 @@
     <row r="197">
       <c r="A197" s="12" t="inlineStr">
         <is>
-          <t>Cristina Iscru</t>
+          <t>Lorena Dumitru</t>
         </is>
       </c>
       <c r="B197" s="8" t="n">
-        <v>45883</v>
+        <v>45682</v>
       </c>
       <c r="C197" s="8" t="n">
-        <v>45883</v>
+        <v>45682</v>
       </c>
       <c r="D197" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" s="9" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F197" s="10" t="n">
-        <v>67.5</v>
+        <v>140</v>
       </c>
       <c r="G197" s="14" t="n">
-        <v>149</v>
+        <v>350</v>
       </c>
       <c r="H197" s="13" t="n">
-        <v>0.3043</v>
+        <v>0.3103</v>
       </c>
       <c r="I197" s="12" t="inlineStr">
         <is>
@@ -63291,7 +63321,7 @@
         <v>162</v>
       </c>
       <c r="H198" s="13" t="n">
-        <v>0.3043</v>
+        <v>0.3032</v>
       </c>
       <c r="I198" s="12" t="inlineStr">
         <is>
@@ -63302,29 +63332,29 @@
     <row r="199">
       <c r="A199" s="12" t="inlineStr">
         <is>
-          <t>Laura Andreea Dolocan</t>
+          <t>Cristina Iscru</t>
         </is>
       </c>
       <c r="B199" s="8" t="n">
-        <v>45670</v>
+        <v>45883</v>
       </c>
       <c r="C199" s="8" t="n">
-        <v>45741</v>
+        <v>45883</v>
       </c>
       <c r="D199" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E199" s="9" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F199" s="10" t="n">
-        <v>43.33</v>
+        <v>67.5</v>
       </c>
       <c r="G199" s="14" t="n">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="H199" s="13" t="n">
-        <v>0.2989</v>
+        <v>0.3032</v>
       </c>
       <c r="I199" s="12" t="inlineStr">
         <is>
@@ -63335,29 +63365,29 @@
     <row r="200">
       <c r="A200" s="12" t="inlineStr">
         <is>
-          <t>Andreea Oneci</t>
+          <t>Laura Andreea Dolocan</t>
         </is>
       </c>
       <c r="B200" s="8" t="n">
-        <v>45920</v>
+        <v>45670</v>
       </c>
       <c r="C200" s="8" t="n">
-        <v>45976</v>
+        <v>45741</v>
       </c>
       <c r="D200" s="11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200" s="9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F200" s="10" t="n">
-        <v>60</v>
+        <v>43.33</v>
       </c>
       <c r="G200" s="14" t="n">
-        <v>56</v>
+        <v>291</v>
       </c>
       <c r="H200" s="13" t="n">
-        <v>0.2883</v>
+        <v>0.2979</v>
       </c>
       <c r="I200" s="12" t="inlineStr">
         <is>
@@ -63368,14 +63398,14 @@
     <row r="201">
       <c r="A201" s="12" t="inlineStr">
         <is>
-          <t>Adelina Angheloiu</t>
+          <t>Andreea Oneci</t>
         </is>
       </c>
       <c r="B201" s="8" t="n">
-        <v>45787</v>
+        <v>45920</v>
       </c>
       <c r="C201" s="8" t="n">
-        <v>46013</v>
+        <v>45976</v>
       </c>
       <c r="D201" s="11" t="n">
         <v>2</v>
@@ -63387,10 +63417,10 @@
         <v>60</v>
       </c>
       <c r="G201" s="14" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H201" s="13" t="n">
-        <v>0.2883</v>
+        <v>0.2872</v>
       </c>
       <c r="I201" s="12" t="inlineStr">
         <is>
@@ -63401,14 +63431,14 @@
     <row r="202">
       <c r="A202" s="12" t="inlineStr">
         <is>
-          <t>Silvia Smarandache</t>
+          <t>Ioana Loreredana Stan</t>
         </is>
       </c>
       <c r="B202" s="8" t="n">
-        <v>45764</v>
+        <v>45665</v>
       </c>
       <c r="C202" s="8" t="n">
-        <v>45855</v>
+        <v>45665</v>
       </c>
       <c r="D202" s="11" t="n">
         <v>2</v>
@@ -63420,10 +63450,10 @@
         <v>60</v>
       </c>
       <c r="G202" s="14" t="n">
-        <v>177</v>
+        <v>367</v>
       </c>
       <c r="H202" s="13" t="n">
-        <v>0.2883</v>
+        <v>0.2872</v>
       </c>
       <c r="I202" s="12" t="inlineStr">
         <is>
@@ -63434,14 +63464,14 @@
     <row r="203">
       <c r="A203" s="12" t="inlineStr">
         <is>
-          <t>Ioana Loreredana Stan</t>
+          <t>Adelina Angheloiu</t>
         </is>
       </c>
       <c r="B203" s="8" t="n">
-        <v>45665</v>
+        <v>45787</v>
       </c>
       <c r="C203" s="8" t="n">
-        <v>45665</v>
+        <v>46013</v>
       </c>
       <c r="D203" s="11" t="n">
         <v>2</v>
@@ -63453,10 +63483,10 @@
         <v>60</v>
       </c>
       <c r="G203" s="14" t="n">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="H203" s="13" t="n">
-        <v>0.2883</v>
+        <v>0.2872</v>
       </c>
       <c r="I203" s="12" t="inlineStr">
         <is>
@@ -63467,14 +63497,14 @@
     <row r="204">
       <c r="A204" s="12" t="inlineStr">
         <is>
-          <t>Catalina Maria</t>
+          <t>Silvia Smarandache</t>
         </is>
       </c>
       <c r="B204" s="8" t="n">
-        <v>45814</v>
+        <v>45764</v>
       </c>
       <c r="C204" s="8" t="n">
-        <v>45947</v>
+        <v>45855</v>
       </c>
       <c r="D204" s="11" t="n">
         <v>2</v>
@@ -63486,10 +63516,10 @@
         <v>60</v>
       </c>
       <c r="G204" s="14" t="n">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="H204" s="13" t="n">
-        <v>0.2883</v>
+        <v>0.2872</v>
       </c>
       <c r="I204" s="12" t="inlineStr">
         <is>
@@ -63500,29 +63530,29 @@
     <row r="205">
       <c r="A205" s="12" t="inlineStr">
         <is>
-          <t>Loredana Neagoe</t>
+          <t>Catalina Maria</t>
         </is>
       </c>
       <c r="B205" s="8" t="n">
-        <v>45905</v>
+        <v>45814</v>
       </c>
       <c r="C205" s="8" t="n">
-        <v>46011</v>
+        <v>45947</v>
       </c>
       <c r="D205" s="11" t="n">
         <v>2</v>
       </c>
       <c r="E205" s="9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F205" s="10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G205" s="14" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="H205" s="13" t="n">
-        <v>0.2722</v>
+        <v>0.2872</v>
       </c>
       <c r="I205" s="12" t="inlineStr">
         <is>
@@ -63533,14 +63563,14 @@
     <row r="206">
       <c r="A206" s="12" t="inlineStr">
         <is>
-          <t>Andreea Iordache Iordache</t>
+          <t>Loredana Tenoaica</t>
         </is>
       </c>
       <c r="B206" s="8" t="n">
-        <v>45867</v>
+        <v>45975</v>
       </c>
       <c r="C206" s="8" t="n">
-        <v>45898</v>
+        <v>46003</v>
       </c>
       <c r="D206" s="11" t="n">
         <v>2</v>
@@ -63552,10 +63582,10 @@
         <v>55</v>
       </c>
       <c r="G206" s="14" t="n">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="H206" s="13" t="n">
-        <v>0.2722</v>
+        <v>0.2713</v>
       </c>
       <c r="I206" s="12" t="inlineStr">
         <is>
@@ -63566,14 +63596,14 @@
     <row r="207">
       <c r="A207" s="12" t="inlineStr">
         <is>
-          <t>Loredana Tenoaica</t>
+          <t>Andreea Iordache Iordache</t>
         </is>
       </c>
       <c r="B207" s="8" t="n">
-        <v>45975</v>
+        <v>45867</v>
       </c>
       <c r="C207" s="8" t="n">
-        <v>46003</v>
+        <v>45898</v>
       </c>
       <c r="D207" s="11" t="n">
         <v>2</v>
@@ -63585,10 +63615,10 @@
         <v>55</v>
       </c>
       <c r="G207" s="14" t="n">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="H207" s="13" t="n">
-        <v>0.2722</v>
+        <v>0.2713</v>
       </c>
       <c r="I207" s="12" t="inlineStr">
         <is>
@@ -63599,14 +63629,14 @@
     <row r="208">
       <c r="A208" s="12" t="inlineStr">
         <is>
-          <t>Larisa Melania</t>
+          <t>Loredana Neagoe</t>
         </is>
       </c>
       <c r="B208" s="8" t="n">
-        <v>45813</v>
+        <v>45905</v>
       </c>
       <c r="C208" s="8" t="n">
-        <v>45813</v>
+        <v>46011</v>
       </c>
       <c r="D208" s="11" t="n">
         <v>2</v>
@@ -63618,10 +63648,10 @@
         <v>55</v>
       </c>
       <c r="G208" s="14" t="n">
-        <v>219</v>
+        <v>21</v>
       </c>
       <c r="H208" s="13" t="n">
-        <v>0.2722</v>
+        <v>0.2713</v>
       </c>
       <c r="I208" s="12" t="inlineStr">
         <is>
@@ -63632,29 +63662,29 @@
     <row r="209">
       <c r="A209" s="12" t="inlineStr">
         <is>
-          <t>Sara Andreea</t>
+          <t>Larisa Melania</t>
         </is>
       </c>
       <c r="B209" s="8" t="n">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="C209" s="8" t="n">
-        <v>45825</v>
+        <v>45813</v>
       </c>
       <c r="D209" s="11" t="n">
         <v>2</v>
       </c>
       <c r="E209" s="9" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F209" s="10" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="G209" s="14" t="n">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="H209" s="13" t="n">
-        <v>0.2598</v>
+        <v>0.2713</v>
       </c>
       <c r="I209" s="12" t="inlineStr">
         <is>
@@ -63665,14 +63695,14 @@
     <row r="210">
       <c r="A210" s="12" t="inlineStr">
         <is>
-          <t>Miruna</t>
+          <t>Lavinia Toma-Tumbar</t>
         </is>
       </c>
       <c r="B210" s="8" t="n">
-        <v>45709</v>
+        <v>46031</v>
       </c>
       <c r="C210" s="8" t="n">
-        <v>45709</v>
+        <v>46031</v>
       </c>
       <c r="D210" s="11" t="n">
         <v>2</v>
@@ -63684,10 +63714,10 @@
         <v>52.5</v>
       </c>
       <c r="G210" s="14" t="n">
-        <v>323</v>
+        <v>1</v>
       </c>
       <c r="H210" s="13" t="n">
-        <v>0.2598</v>
+        <v>0.2589</v>
       </c>
       <c r="I210" s="12" t="inlineStr">
         <is>
@@ -63698,14 +63728,14 @@
     <row r="211">
       <c r="A211" s="12" t="inlineStr">
         <is>
-          <t>Lavinia Toma-Tumbar</t>
+          <t>Sara Andreea</t>
         </is>
       </c>
       <c r="B211" s="8" t="n">
-        <v>46031</v>
+        <v>45825</v>
       </c>
       <c r="C211" s="8" t="n">
-        <v>46031</v>
+        <v>45825</v>
       </c>
       <c r="D211" s="11" t="n">
         <v>2</v>
@@ -63717,10 +63747,10 @@
         <v>52.5</v>
       </c>
       <c r="G211" s="14" t="n">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="H211" s="13" t="n">
-        <v>0.2598</v>
+        <v>0.2589</v>
       </c>
       <c r="I211" s="12" t="inlineStr">
         <is>
@@ -63731,29 +63761,29 @@
     <row r="212">
       <c r="A212" s="12" t="inlineStr">
         <is>
-          <t>Claudiu Luță</t>
+          <t>Miruna</t>
         </is>
       </c>
       <c r="B212" s="8" t="n">
-        <v>45863</v>
+        <v>45709</v>
       </c>
       <c r="C212" s="8" t="n">
-        <v>45967</v>
+        <v>45709</v>
       </c>
       <c r="D212" s="11" t="n">
         <v>2</v>
       </c>
       <c r="E212" s="9" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F212" s="10" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="G212" s="14" t="n">
-        <v>65</v>
+        <v>323</v>
       </c>
       <c r="H212" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2589</v>
       </c>
       <c r="I212" s="12" t="inlineStr">
         <is>
@@ -63764,14 +63794,14 @@
     <row r="213">
       <c r="A213" s="12" t="inlineStr">
         <is>
-          <t>Roxana Bebe</t>
+          <t>Viorica Masi</t>
         </is>
       </c>
       <c r="B213" s="8" t="n">
-        <v>45848</v>
+        <v>45786</v>
       </c>
       <c r="C213" s="8" t="n">
-        <v>45902</v>
+        <v>45941</v>
       </c>
       <c r="D213" s="11" t="n">
         <v>2</v>
@@ -63783,10 +63813,10 @@
         <v>50</v>
       </c>
       <c r="G213" s="14" t="n">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="H213" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2429</v>
       </c>
       <c r="I213" s="12" t="inlineStr">
         <is>
@@ -63797,14 +63827,14 @@
     <row r="214">
       <c r="A214" s="12" t="inlineStr">
         <is>
-          <t>Hariclea</t>
+          <t>Oana Anghelescu</t>
         </is>
       </c>
       <c r="B214" s="8" t="n">
-        <v>45730</v>
+        <v>45985</v>
       </c>
       <c r="C214" s="8" t="n">
-        <v>45730</v>
+        <v>45985</v>
       </c>
       <c r="D214" s="11" t="n">
         <v>2</v>
@@ -63816,10 +63846,10 @@
         <v>50</v>
       </c>
       <c r="G214" s="14" t="n">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="H214" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2429</v>
       </c>
       <c r="I214" s="12" t="inlineStr">
         <is>
@@ -63830,14 +63860,14 @@
     <row r="215">
       <c r="A215" s="12" t="inlineStr">
         <is>
-          <t>Viorica Masi</t>
+          <t>Hariclea</t>
         </is>
       </c>
       <c r="B215" s="8" t="n">
-        <v>45786</v>
+        <v>45730</v>
       </c>
       <c r="C215" s="8" t="n">
-        <v>45941</v>
+        <v>45730</v>
       </c>
       <c r="D215" s="11" t="n">
         <v>2</v>
@@ -63849,10 +63879,10 @@
         <v>50</v>
       </c>
       <c r="G215" s="14" t="n">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="H215" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2429</v>
       </c>
       <c r="I215" s="12" t="inlineStr">
         <is>
@@ -63885,7 +63915,7 @@
         <v>319</v>
       </c>
       <c r="H216" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2429</v>
       </c>
       <c r="I216" s="12" t="inlineStr">
         <is>
@@ -63896,14 +63926,14 @@
     <row r="217">
       <c r="A217" s="12" t="inlineStr">
         <is>
-          <t>Oana Anghelescu</t>
+          <t>Claudiu Luță</t>
         </is>
       </c>
       <c r="B217" s="8" t="n">
-        <v>45985</v>
+        <v>45863</v>
       </c>
       <c r="C217" s="8" t="n">
-        <v>45985</v>
+        <v>45967</v>
       </c>
       <c r="D217" s="11" t="n">
         <v>2</v>
@@ -63915,10 +63945,10 @@
         <v>50</v>
       </c>
       <c r="G217" s="14" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H217" s="13" t="n">
-        <v>0.2438</v>
+        <v>0.2429</v>
       </c>
       <c r="I217" s="12" t="inlineStr">
         <is>
@@ -63929,29 +63959,29 @@
     <row r="218">
       <c r="A218" s="12" t="inlineStr">
         <is>
-          <t>Renata Budai</t>
+          <t>Roxana Bebe</t>
         </is>
       </c>
       <c r="B218" s="8" t="n">
-        <v>45761</v>
+        <v>45848</v>
       </c>
       <c r="C218" s="8" t="n">
-        <v>45761</v>
+        <v>45902</v>
       </c>
       <c r="D218" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" s="9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F218" s="10" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G218" s="14" t="n">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="H218" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2429</v>
       </c>
       <c r="I218" s="12" t="inlineStr">
         <is>
@@ -63962,29 +63992,29 @@
     <row r="219">
       <c r="A219" s="12" t="inlineStr">
         <is>
-          <t>Lili Florescu</t>
+          <t>Renata Budai</t>
         </is>
       </c>
       <c r="B219" s="8" t="n">
-        <v>45666</v>
+        <v>45761</v>
       </c>
       <c r="C219" s="8" t="n">
-        <v>45924</v>
+        <v>45761</v>
       </c>
       <c r="D219" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E219" s="9" t="n">
         <v>90</v>
       </c>
       <c r="F219" s="10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G219" s="14" t="n">
-        <v>108</v>
+        <v>271</v>
       </c>
       <c r="H219" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I219" s="12" t="inlineStr">
         <is>
@@ -63995,14 +64025,14 @@
     <row r="220">
       <c r="A220" s="12" t="inlineStr">
         <is>
-          <t>Pantalia Daiana</t>
+          <t>Ana Stefan</t>
         </is>
       </c>
       <c r="B220" s="8" t="n">
-        <v>45974</v>
+        <v>45742</v>
       </c>
       <c r="C220" s="8" t="n">
-        <v>45974</v>
+        <v>45742</v>
       </c>
       <c r="D220" s="11" t="n">
         <v>1</v>
@@ -64014,10 +64044,10 @@
         <v>90</v>
       </c>
       <c r="G220" s="14" t="n">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="H220" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I220" s="12" t="inlineStr">
         <is>
@@ -64028,29 +64058,29 @@
     <row r="221">
       <c r="A221" s="12" t="inlineStr">
         <is>
-          <t>Roxana Trașcă</t>
+          <t>Sandu Iarina</t>
         </is>
       </c>
       <c r="B221" s="8" t="n">
-        <v>45707</v>
+        <v>46001</v>
       </c>
       <c r="C221" s="8" t="n">
-        <v>45937</v>
+        <v>46001</v>
       </c>
       <c r="D221" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E221" s="9" t="n">
         <v>90</v>
       </c>
       <c r="F221" s="10" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G221" s="14" t="n">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="H221" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I221" s="12" t="inlineStr">
         <is>
@@ -64061,14 +64091,14 @@
     <row r="222">
       <c r="A222" s="12" t="inlineStr">
         <is>
-          <t>Ana Stefan</t>
+          <t>Daria Zmf</t>
         </is>
       </c>
       <c r="B222" s="8" t="n">
-        <v>45742</v>
+        <v>46006</v>
       </c>
       <c r="C222" s="8" t="n">
-        <v>45742</v>
+        <v>46006</v>
       </c>
       <c r="D222" s="11" t="n">
         <v>1</v>
@@ -64080,10 +64110,10 @@
         <v>90</v>
       </c>
       <c r="G222" s="14" t="n">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="H222" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I222" s="12" t="inlineStr">
         <is>
@@ -64094,14 +64124,14 @@
     <row r="223">
       <c r="A223" s="12" t="inlineStr">
         <is>
-          <t>Sandu Iarina</t>
+          <t>Pantalia Daiana</t>
         </is>
       </c>
       <c r="B223" s="8" t="n">
-        <v>46001</v>
+        <v>45974</v>
       </c>
       <c r="C223" s="8" t="n">
-        <v>46001</v>
+        <v>45974</v>
       </c>
       <c r="D223" s="11" t="n">
         <v>1</v>
@@ -64113,10 +64143,10 @@
         <v>90</v>
       </c>
       <c r="G223" s="14" t="n">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="H223" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I223" s="12" t="inlineStr">
         <is>
@@ -64127,14 +64157,14 @@
     <row r="224">
       <c r="A224" s="12" t="inlineStr">
         <is>
-          <t>Tabita Iasmina</t>
+          <t>Theodora Florea</t>
         </is>
       </c>
       <c r="B224" s="8" t="n">
-        <v>45953</v>
+        <v>45841</v>
       </c>
       <c r="C224" s="8" t="n">
-        <v>45953</v>
+        <v>45841</v>
       </c>
       <c r="D224" s="11" t="n">
         <v>1</v>
@@ -64146,10 +64176,10 @@
         <v>90</v>
       </c>
       <c r="G224" s="14" t="n">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="H224" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I224" s="12" t="inlineStr">
         <is>
@@ -64160,29 +64190,29 @@
     <row r="225">
       <c r="A225" s="12" t="inlineStr">
         <is>
-          <t>Theodora Florea</t>
+          <t>Larisa Masaj</t>
         </is>
       </c>
       <c r="B225" s="8" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="C225" s="8" t="n">
-        <v>45841</v>
+        <v>45834</v>
       </c>
       <c r="D225" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225" s="9" t="n">
         <v>90</v>
       </c>
       <c r="F225" s="10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G225" s="14" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H225" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I225" s="12" t="inlineStr">
         <is>
@@ -64193,14 +64223,14 @@
     <row r="226">
       <c r="A226" s="12" t="inlineStr">
         <is>
-          <t>Daria Zmf</t>
+          <t>Tabita Iasmina</t>
         </is>
       </c>
       <c r="B226" s="8" t="n">
-        <v>46006</v>
+        <v>45953</v>
       </c>
       <c r="C226" s="8" t="n">
-        <v>46006</v>
+        <v>45953</v>
       </c>
       <c r="D226" s="11" t="n">
         <v>1</v>
@@ -64212,10 +64242,10 @@
         <v>90</v>
       </c>
       <c r="G226" s="14" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="H226" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I226" s="12" t="inlineStr">
         <is>
@@ -64226,14 +64256,14 @@
     <row r="227">
       <c r="A227" s="12" t="inlineStr">
         <is>
-          <t>Larisa Masaj</t>
+          <t>Lili Florescu</t>
         </is>
       </c>
       <c r="B227" s="8" t="n">
-        <v>45834</v>
+        <v>45666</v>
       </c>
       <c r="C227" s="8" t="n">
-        <v>45834</v>
+        <v>45924</v>
       </c>
       <c r="D227" s="11" t="n">
         <v>2</v>
@@ -64245,10 +64275,10 @@
         <v>45</v>
       </c>
       <c r="G227" s="14" t="n">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="H227" s="13" t="n">
-        <v>0.2153</v>
+        <v>0.2145</v>
       </c>
       <c r="I227" s="12" t="inlineStr">
         <is>
@@ -64259,62 +64289,62 @@
     <row r="228">
       <c r="A228" s="12" t="inlineStr">
         <is>
-          <t>Madalina Paraschiv</t>
+          <t>Roxana Trașcă</t>
         </is>
       </c>
       <c r="B228" s="8" t="n">
-        <v>45784</v>
+        <v>45707</v>
       </c>
       <c r="C228" s="8" t="n">
-        <v>45784</v>
+        <v>45937</v>
       </c>
       <c r="D228" s="11" t="n">
         <v>2</v>
       </c>
       <c r="E228" s="9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F228" s="10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G228" s="14" t="n">
-        <v>248</v>
+        <v>95</v>
       </c>
       <c r="H228" s="13" t="n">
-        <v>0.194</v>
+        <v>0.2145</v>
       </c>
       <c r="I228" s="12" t="inlineStr">
         <is>
-          <t>New/Low</t>
+          <t>Occasional</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="12" t="inlineStr">
         <is>
-          <t>Enza D'angelo</t>
+          <t>Madalina Paraschiv</t>
         </is>
       </c>
       <c r="B229" s="8" t="n">
-        <v>45835</v>
+        <v>45784</v>
       </c>
       <c r="C229" s="8" t="n">
-        <v>45835</v>
+        <v>45784</v>
       </c>
       <c r="D229" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E229" s="9" t="n">
         <v>80</v>
       </c>
       <c r="F229" s="10" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G229" s="14" t="n">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="H229" s="13" t="n">
-        <v>0.194</v>
+        <v>0.1933</v>
       </c>
       <c r="I229" s="12" t="inlineStr">
         <is>
@@ -64325,29 +64355,29 @@
     <row r="230">
       <c r="A230" s="12" t="inlineStr">
         <is>
-          <t>Otilia Muncioiu</t>
+          <t>Enza D'angelo</t>
         </is>
       </c>
       <c r="B230" s="8" t="n">
-        <v>46014</v>
+        <v>45835</v>
       </c>
       <c r="C230" s="8" t="n">
-        <v>46014</v>
+        <v>45835</v>
       </c>
       <c r="D230" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E230" s="9" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F230" s="10" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G230" s="14" t="n">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="H230" s="13" t="n">
-        <v>0.1851</v>
+        <v>0.1933</v>
       </c>
       <c r="I230" s="12" t="inlineStr">
         <is>
@@ -64358,14 +64388,14 @@
     <row r="231">
       <c r="A231" s="12" t="inlineStr">
         <is>
-          <t>Violeta Cirla</t>
+          <t>Mihaela Dina</t>
         </is>
       </c>
       <c r="B231" s="8" t="n">
-        <v>45982</v>
+        <v>45828</v>
       </c>
       <c r="C231" s="8" t="n">
-        <v>45982</v>
+        <v>45828</v>
       </c>
       <c r="D231" s="11" t="n">
         <v>1</v>
@@ -64377,10 +64407,10 @@
         <v>70</v>
       </c>
       <c r="G231" s="14" t="n">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="H231" s="13" t="n">
-        <v>0.1851</v>
+        <v>0.1844</v>
       </c>
       <c r="I231" s="12" t="inlineStr">
         <is>
@@ -64391,29 +64421,29 @@
     <row r="232">
       <c r="A232" s="12" t="inlineStr">
         <is>
-          <t>Mihaela Dina</t>
+          <t>Otilia Muncioiu</t>
         </is>
       </c>
       <c r="B232" s="8" t="n">
-        <v>45828</v>
+        <v>46014</v>
       </c>
       <c r="C232" s="8" t="n">
-        <v>45828</v>
+        <v>46014</v>
       </c>
       <c r="D232" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E232" s="9" t="n">
         <v>70</v>
       </c>
       <c r="F232" s="10" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="G232" s="14" t="n">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="H232" s="13" t="n">
-        <v>0.1851</v>
+        <v>0.1844</v>
       </c>
       <c r="I232" s="12" t="inlineStr">
         <is>
@@ -64424,29 +64454,29 @@
     <row r="233">
       <c r="A233" s="12" t="inlineStr">
         <is>
-          <t>Elena Surupaceanu</t>
+          <t>Violeta Cirla</t>
         </is>
       </c>
       <c r="B233" s="8" t="n">
-        <v>46027</v>
+        <v>45982</v>
       </c>
       <c r="C233" s="8" t="n">
-        <v>46027</v>
+        <v>45982</v>
       </c>
       <c r="D233" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E233" s="9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F233" s="10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G233" s="14" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="H233" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1844</v>
       </c>
       <c r="I233" s="12" t="inlineStr">
         <is>
@@ -64457,14 +64487,14 @@
     <row r="234">
       <c r="A234" s="12" t="inlineStr">
         <is>
-          <t>Alma Badici</t>
+          <t>Alexandra Matei</t>
         </is>
       </c>
       <c r="B234" s="8" t="n">
-        <v>45891</v>
+        <v>45881</v>
       </c>
       <c r="C234" s="8" t="n">
-        <v>45891</v>
+        <v>45881</v>
       </c>
       <c r="D234" s="11" t="n">
         <v>1</v>
@@ -64476,10 +64506,10 @@
         <v>65</v>
       </c>
       <c r="G234" s="14" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="H234" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I234" s="12" t="inlineStr">
         <is>
@@ -64490,14 +64520,14 @@
     <row r="235">
       <c r="A235" s="12" t="inlineStr">
         <is>
-          <t>Alina Andreea</t>
+          <t>Alina Florina</t>
         </is>
       </c>
       <c r="B235" s="8" t="n">
-        <v>45849</v>
+        <v>45860</v>
       </c>
       <c r="C235" s="8" t="n">
-        <v>45849</v>
+        <v>45860</v>
       </c>
       <c r="D235" s="11" t="n">
         <v>1</v>
@@ -64509,10 +64539,10 @@
         <v>65</v>
       </c>
       <c r="G235" s="14" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="H235" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I235" s="12" t="inlineStr">
         <is>
@@ -64523,14 +64553,14 @@
     <row r="236">
       <c r="A236" s="12" t="inlineStr">
         <is>
-          <t>Alina Florina</t>
+          <t>Alina Andreea</t>
         </is>
       </c>
       <c r="B236" s="8" t="n">
-        <v>45860</v>
+        <v>45849</v>
       </c>
       <c r="C236" s="8" t="n">
-        <v>45860</v>
+        <v>45849</v>
       </c>
       <c r="D236" s="11" t="n">
         <v>1</v>
@@ -64542,10 +64572,10 @@
         <v>65</v>
       </c>
       <c r="G236" s="14" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H236" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I236" s="12" t="inlineStr">
         <is>
@@ -64556,14 +64586,14 @@
     <row r="237">
       <c r="A237" s="12" t="inlineStr">
         <is>
-          <t>Alexandra Matei</t>
+          <t>Riana Uncheselu</t>
         </is>
       </c>
       <c r="B237" s="8" t="n">
-        <v>45881</v>
+        <v>45846</v>
       </c>
       <c r="C237" s="8" t="n">
-        <v>45881</v>
+        <v>45846</v>
       </c>
       <c r="D237" s="11" t="n">
         <v>1</v>
@@ -64575,10 +64605,10 @@
         <v>65</v>
       </c>
       <c r="G237" s="14" t="n">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="H237" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I237" s="12" t="inlineStr">
         <is>
@@ -64589,14 +64619,14 @@
     <row r="238">
       <c r="A238" s="12" t="inlineStr">
         <is>
-          <t>Riana Uncheselu</t>
+          <t>Alma Badici</t>
         </is>
       </c>
       <c r="B238" s="8" t="n">
-        <v>45846</v>
+        <v>45891</v>
       </c>
       <c r="C238" s="8" t="n">
-        <v>45846</v>
+        <v>45891</v>
       </c>
       <c r="D238" s="11" t="n">
         <v>1</v>
@@ -64608,10 +64638,10 @@
         <v>65</v>
       </c>
       <c r="G238" s="14" t="n">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="H238" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I238" s="12" t="inlineStr">
         <is>
@@ -64622,14 +64652,14 @@
     <row r="239">
       <c r="A239" s="12" t="inlineStr">
         <is>
-          <t>Marina Pana</t>
+          <t>Denisa</t>
         </is>
       </c>
       <c r="B239" s="8" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="C239" s="8" t="n">
-        <v>45966</v>
+        <v>45959</v>
       </c>
       <c r="D239" s="11" t="n">
         <v>1</v>
@@ -64641,10 +64671,10 @@
         <v>65</v>
       </c>
       <c r="G239" s="14" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H239" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I239" s="12" t="inlineStr">
         <is>
@@ -64655,14 +64685,14 @@
     <row r="240">
       <c r="A240" s="12" t="inlineStr">
         <is>
-          <t>Iulia Grigore</t>
+          <t>Antonia Laura</t>
         </is>
       </c>
       <c r="B240" s="8" t="n">
-        <v>45882</v>
+        <v>45873</v>
       </c>
       <c r="C240" s="8" t="n">
-        <v>45882</v>
+        <v>45873</v>
       </c>
       <c r="D240" s="11" t="n">
         <v>1</v>
@@ -64674,10 +64704,10 @@
         <v>65</v>
       </c>
       <c r="G240" s="14" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H240" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I240" s="12" t="inlineStr">
         <is>
@@ -64688,14 +64718,14 @@
     <row r="241">
       <c r="A241" s="12" t="inlineStr">
         <is>
-          <t>Marcela Fota</t>
+          <t>Iulia Grigore</t>
         </is>
       </c>
       <c r="B241" s="8" t="n">
-        <v>45841</v>
+        <v>45882</v>
       </c>
       <c r="C241" s="8" t="n">
-        <v>45841</v>
+        <v>45882</v>
       </c>
       <c r="D241" s="11" t="n">
         <v>1</v>
@@ -64707,10 +64737,10 @@
         <v>65</v>
       </c>
       <c r="G241" s="14" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="H241" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I241" s="12" t="inlineStr">
         <is>
@@ -64721,14 +64751,14 @@
     <row r="242">
       <c r="A242" s="12" t="inlineStr">
         <is>
-          <t>Fatima Toma</t>
+          <t>Elena Surupaceanu</t>
         </is>
       </c>
       <c r="B242" s="8" t="n">
-        <v>45946</v>
+        <v>46027</v>
       </c>
       <c r="C242" s="8" t="n">
-        <v>45946</v>
+        <v>46027</v>
       </c>
       <c r="D242" s="11" t="n">
         <v>1</v>
@@ -64740,10 +64770,10 @@
         <v>65</v>
       </c>
       <c r="G242" s="14" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="H242" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I242" s="12" t="inlineStr">
         <is>
@@ -64754,14 +64784,14 @@
     <row r="243">
       <c r="A243" s="12" t="inlineStr">
         <is>
-          <t>Antonia Laura</t>
+          <t>Marcela Fota</t>
         </is>
       </c>
       <c r="B243" s="8" t="n">
-        <v>45873</v>
+        <v>45841</v>
       </c>
       <c r="C243" s="8" t="n">
-        <v>45873</v>
+        <v>45841</v>
       </c>
       <c r="D243" s="11" t="n">
         <v>1</v>
@@ -64773,10 +64803,10 @@
         <v>65</v>
       </c>
       <c r="G243" s="14" t="n">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H243" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I243" s="12" t="inlineStr">
         <is>
@@ -64787,14 +64817,14 @@
     <row r="244">
       <c r="A244" s="12" t="inlineStr">
         <is>
-          <t>Daniela Mihai</t>
+          <t>Fatima Toma</t>
         </is>
       </c>
       <c r="B244" s="8" t="n">
-        <v>45791</v>
+        <v>45946</v>
       </c>
       <c r="C244" s="8" t="n">
-        <v>45791</v>
+        <v>45946</v>
       </c>
       <c r="D244" s="11" t="n">
         <v>1</v>
@@ -64806,10 +64836,10 @@
         <v>65</v>
       </c>
       <c r="G244" s="14" t="n">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="H244" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I244" s="12" t="inlineStr">
         <is>
@@ -64820,14 +64850,14 @@
     <row r="245">
       <c r="A245" s="12" t="inlineStr">
         <is>
-          <t>Denisa</t>
+          <t>Marina Pana</t>
         </is>
       </c>
       <c r="B245" s="8" t="n">
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="C245" s="8" t="n">
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="D245" s="11" t="n">
         <v>1</v>
@@ -64839,10 +64869,10 @@
         <v>65</v>
       </c>
       <c r="G245" s="14" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H245" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I245" s="12" t="inlineStr">
         <is>
@@ -64875,7 +64905,7 @@
         <v>184</v>
       </c>
       <c r="H246" s="13" t="n">
-        <v>0.1548</v>
+        <v>0.1543</v>
       </c>
       <c r="I246" s="12" t="inlineStr">
         <is>
@@ -64886,29 +64916,29 @@
     <row r="247">
       <c r="A247" s="12" t="inlineStr">
         <is>
-          <t>Alexandra Buga</t>
+          <t>Daniela Mihai</t>
         </is>
       </c>
       <c r="B247" s="8" t="n">
-        <v>45717</v>
+        <v>45791</v>
       </c>
       <c r="C247" s="8" t="n">
-        <v>45717</v>
+        <v>45791</v>
       </c>
       <c r="D247" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E247" s="9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F247" s="10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G247" s="14" t="n">
-        <v>315</v>
+        <v>241</v>
       </c>
       <c r="H247" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.1543</v>
       </c>
       <c r="I247" s="12" t="inlineStr">
         <is>
@@ -64919,14 +64949,14 @@
     <row r="248">
       <c r="A248" s="12" t="inlineStr">
         <is>
-          <t>Mara Duță</t>
+          <t>Stefania Dolan</t>
         </is>
       </c>
       <c r="B248" s="8" t="n">
-        <v>46013</v>
+        <v>46028</v>
       </c>
       <c r="C248" s="8" t="n">
-        <v>46013</v>
+        <v>46028</v>
       </c>
       <c r="D248" s="11" t="n">
         <v>1</v>
@@ -64938,10 +64968,10 @@
         <v>60</v>
       </c>
       <c r="G248" s="14" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H248" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I248" s="12" t="inlineStr">
         <is>
@@ -64952,14 +64982,14 @@
     <row r="249">
       <c r="A249" s="12" t="inlineStr">
         <is>
-          <t>Carmen Raduica</t>
+          <t>Irina Popescu</t>
         </is>
       </c>
       <c r="B249" s="8" t="n">
-        <v>45902</v>
+        <v>45833</v>
       </c>
       <c r="C249" s="8" t="n">
-        <v>45902</v>
+        <v>45833</v>
       </c>
       <c r="D249" s="11" t="n">
         <v>1</v>
@@ -64971,10 +65001,10 @@
         <v>60</v>
       </c>
       <c r="G249" s="14" t="n">
-        <v>130</v>
+        <v>199</v>
       </c>
       <c r="H249" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I249" s="12" t="inlineStr">
         <is>
@@ -64985,14 +65015,14 @@
     <row r="250">
       <c r="A250" s="12" t="inlineStr">
         <is>
-          <t>Dorina Fiedler</t>
+          <t>Karina Olteanu</t>
         </is>
       </c>
       <c r="B250" s="8" t="n">
-        <v>45985</v>
+        <v>45843</v>
       </c>
       <c r="C250" s="8" t="n">
-        <v>45985</v>
+        <v>45843</v>
       </c>
       <c r="D250" s="11" t="n">
         <v>1</v>
@@ -65004,10 +65034,10 @@
         <v>60</v>
       </c>
       <c r="G250" s="14" t="n">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="H250" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I250" s="12" t="inlineStr">
         <is>
@@ -65018,14 +65048,14 @@
     <row r="251">
       <c r="A251" s="12" t="inlineStr">
         <is>
-          <t>Sebastien Charlot</t>
+          <t>Lavinia Radut</t>
         </is>
       </c>
       <c r="B251" s="8" t="n">
-        <v>45883</v>
+        <v>45819</v>
       </c>
       <c r="C251" s="8" t="n">
-        <v>45883</v>
+        <v>45819</v>
       </c>
       <c r="D251" s="11" t="n">
         <v>1</v>
@@ -65037,10 +65067,10 @@
         <v>60</v>
       </c>
       <c r="G251" s="14" t="n">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="H251" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I251" s="12" t="inlineStr">
         <is>
@@ -65051,14 +65081,14 @@
     <row r="252">
       <c r="A252" s="12" t="inlineStr">
         <is>
-          <t>Stefania Dolan</t>
+          <t>Alexandra Buga</t>
         </is>
       </c>
       <c r="B252" s="8" t="n">
-        <v>46028</v>
+        <v>45717</v>
       </c>
       <c r="C252" s="8" t="n">
-        <v>46028</v>
+        <v>45717</v>
       </c>
       <c r="D252" s="11" t="n">
         <v>1</v>
@@ -65070,10 +65100,10 @@
         <v>60</v>
       </c>
       <c r="G252" s="14" t="n">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="H252" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I252" s="12" t="inlineStr">
         <is>
@@ -65084,14 +65114,14 @@
     <row r="253">
       <c r="A253" s="12" t="inlineStr">
         <is>
-          <t>Madalina Stania</t>
+          <t>Carmen Raduica</t>
         </is>
       </c>
       <c r="B253" s="8" t="n">
-        <v>45945</v>
+        <v>45902</v>
       </c>
       <c r="C253" s="8" t="n">
-        <v>45945</v>
+        <v>45902</v>
       </c>
       <c r="D253" s="11" t="n">
         <v>1</v>
@@ -65103,10 +65133,10 @@
         <v>60</v>
       </c>
       <c r="G253" s="14" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="H253" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I253" s="12" t="inlineStr">
         <is>
@@ -65117,14 +65147,14 @@
     <row r="254">
       <c r="A254" s="12" t="inlineStr">
         <is>
-          <t>Andreea Schiopu</t>
+          <t>Ionela Corina</t>
         </is>
       </c>
       <c r="B254" s="8" t="n">
-        <v>46009</v>
+        <v>46028</v>
       </c>
       <c r="C254" s="8" t="n">
-        <v>46009</v>
+        <v>46028</v>
       </c>
       <c r="D254" s="11" t="n">
         <v>1</v>
@@ -65136,10 +65166,10 @@
         <v>60</v>
       </c>
       <c r="G254" s="14" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H254" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I254" s="12" t="inlineStr">
         <is>
@@ -65150,14 +65180,14 @@
     <row r="255">
       <c r="A255" s="12" t="inlineStr">
         <is>
-          <t>Maria Cioancă</t>
+          <t>Madalina Stania</t>
         </is>
       </c>
       <c r="B255" s="8" t="n">
-        <v>46028</v>
+        <v>45945</v>
       </c>
       <c r="C255" s="8" t="n">
-        <v>46028</v>
+        <v>45945</v>
       </c>
       <c r="D255" s="11" t="n">
         <v>1</v>
@@ -65169,10 +65199,10 @@
         <v>60</v>
       </c>
       <c r="G255" s="14" t="n">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="H255" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I255" s="12" t="inlineStr">
         <is>
@@ -65183,14 +65213,14 @@
     <row r="256">
       <c r="A256" s="12" t="inlineStr">
         <is>
-          <t>Ionela Corina</t>
+          <t>Mara Duță</t>
         </is>
       </c>
       <c r="B256" s="8" t="n">
-        <v>46028</v>
+        <v>46013</v>
       </c>
       <c r="C256" s="8" t="n">
-        <v>46028</v>
+        <v>46013</v>
       </c>
       <c r="D256" s="11" t="n">
         <v>1</v>
@@ -65202,10 +65232,10 @@
         <v>60</v>
       </c>
       <c r="G256" s="14" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H256" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I256" s="12" t="inlineStr">
         <is>
@@ -65216,14 +65246,14 @@
     <row r="257">
       <c r="A257" s="12" t="inlineStr">
         <is>
-          <t>Karina Olteanu</t>
+          <t>Sebastien Charlot</t>
         </is>
       </c>
       <c r="B257" s="8" t="n">
-        <v>45843</v>
+        <v>45883</v>
       </c>
       <c r="C257" s="8" t="n">
-        <v>45843</v>
+        <v>45883</v>
       </c>
       <c r="D257" s="11" t="n">
         <v>1</v>
@@ -65235,10 +65265,10 @@
         <v>60</v>
       </c>
       <c r="G257" s="14" t="n">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="H257" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I257" s="12" t="inlineStr">
         <is>
@@ -65249,14 +65279,14 @@
     <row r="258">
       <c r="A258" s="12" t="inlineStr">
         <is>
-          <t>Andreea Luiza</t>
+          <t>Maria Cioancă</t>
         </is>
       </c>
       <c r="B258" s="8" t="n">
-        <v>45958</v>
+        <v>46028</v>
       </c>
       <c r="C258" s="8" t="n">
-        <v>45958</v>
+        <v>46028</v>
       </c>
       <c r="D258" s="11" t="n">
         <v>1</v>
@@ -65268,10 +65298,10 @@
         <v>60</v>
       </c>
       <c r="G258" s="14" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="H258" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I258" s="12" t="inlineStr">
         <is>
@@ -65282,14 +65312,14 @@
     <row r="259">
       <c r="A259" s="12" t="inlineStr">
         <is>
-          <t>Andrra Pavel</t>
+          <t>Maria Velica</t>
         </is>
       </c>
       <c r="B259" s="8" t="n">
-        <v>45923</v>
+        <v>46030</v>
       </c>
       <c r="C259" s="8" t="n">
-        <v>45923</v>
+        <v>46030</v>
       </c>
       <c r="D259" s="11" t="n">
         <v>1</v>
@@ -65301,10 +65331,10 @@
         <v>60</v>
       </c>
       <c r="G259" s="14" t="n">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="H259" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I259" s="12" t="inlineStr">
         <is>
@@ -65315,29 +65345,29 @@
     <row r="260">
       <c r="A260" s="12" t="inlineStr">
         <is>
-          <t>Mona Duca</t>
+          <t>Dorina Fiedler</t>
         </is>
       </c>
       <c r="B260" s="8" t="n">
-        <v>45701</v>
+        <v>45985</v>
       </c>
       <c r="C260" s="8" t="n">
-        <v>45701</v>
+        <v>45985</v>
       </c>
       <c r="D260" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E260" s="9" t="n">
         <v>60</v>
       </c>
       <c r="F260" s="10" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G260" s="14" t="n">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="H260" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I260" s="12" t="inlineStr">
         <is>
@@ -65348,14 +65378,14 @@
     <row r="261">
       <c r="A261" s="12" t="inlineStr">
         <is>
-          <t>Andreea Cosma</t>
+          <t>Sandra Filis</t>
         </is>
       </c>
       <c r="B261" s="8" t="n">
-        <v>45681</v>
+        <v>45756</v>
       </c>
       <c r="C261" s="8" t="n">
-        <v>45681</v>
+        <v>45756</v>
       </c>
       <c r="D261" s="11" t="n">
         <v>1</v>
@@ -65367,10 +65397,10 @@
         <v>60</v>
       </c>
       <c r="G261" s="14" t="n">
-        <v>351</v>
+        <v>276</v>
       </c>
       <c r="H261" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I261" s="12" t="inlineStr">
         <is>
@@ -65381,14 +65411,14 @@
     <row r="262">
       <c r="A262" s="12" t="inlineStr">
         <is>
-          <t>Irina Popescu</t>
+          <t>Andrra Pavel</t>
         </is>
       </c>
       <c r="B262" s="8" t="n">
-        <v>45833</v>
+        <v>45923</v>
       </c>
       <c r="C262" s="8" t="n">
-        <v>45833</v>
+        <v>45923</v>
       </c>
       <c r="D262" s="11" t="n">
         <v>1</v>
@@ -65400,10 +65430,10 @@
         <v>60</v>
       </c>
       <c r="G262" s="14" t="n">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="H262" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I262" s="12" t="inlineStr">
         <is>
@@ -65414,14 +65444,14 @@
     <row r="263">
       <c r="A263" s="12" t="inlineStr">
         <is>
-          <t>Andrada Costescu</t>
+          <t>Andreea Schiopu</t>
         </is>
       </c>
       <c r="B263" s="8" t="n">
-        <v>45931</v>
+        <v>46009</v>
       </c>
       <c r="C263" s="8" t="n">
-        <v>45931</v>
+        <v>46009</v>
       </c>
       <c r="D263" s="11" t="n">
         <v>1</v>
@@ -65433,10 +65463,10 @@
         <v>60</v>
       </c>
       <c r="G263" s="14" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="H263" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I263" s="12" t="inlineStr">
         <is>
@@ -65447,14 +65477,14 @@
     <row r="264">
       <c r="A264" s="12" t="inlineStr">
         <is>
-          <t>Sandra Filis</t>
+          <t>Roxana Preso</t>
         </is>
       </c>
       <c r="B264" s="8" t="n">
-        <v>45756</v>
+        <v>45847</v>
       </c>
       <c r="C264" s="8" t="n">
-        <v>45756</v>
+        <v>45847</v>
       </c>
       <c r="D264" s="11" t="n">
         <v>1</v>
@@ -65466,10 +65496,10 @@
         <v>60</v>
       </c>
       <c r="G264" s="14" t="n">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="H264" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I264" s="12" t="inlineStr">
         <is>
@@ -65480,14 +65510,14 @@
     <row r="265">
       <c r="A265" s="12" t="inlineStr">
         <is>
-          <t>Lavinia Radut</t>
+          <t>Andreea Luiza</t>
         </is>
       </c>
       <c r="B265" s="8" t="n">
-        <v>45819</v>
+        <v>45958</v>
       </c>
       <c r="C265" s="8" t="n">
-        <v>45819</v>
+        <v>45958</v>
       </c>
       <c r="D265" s="11" t="n">
         <v>1</v>
@@ -65499,10 +65529,10 @@
         <v>60</v>
       </c>
       <c r="G265" s="14" t="n">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="H265" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I265" s="12" t="inlineStr">
         <is>
@@ -65513,14 +65543,14 @@
     <row r="266">
       <c r="A266" s="12" t="inlineStr">
         <is>
-          <t>Maria Velica</t>
+          <t>Andreea Cosma</t>
         </is>
       </c>
       <c r="B266" s="8" t="n">
-        <v>46030</v>
+        <v>45681</v>
       </c>
       <c r="C266" s="8" t="n">
-        <v>46030</v>
+        <v>45681</v>
       </c>
       <c r="D266" s="11" t="n">
         <v>1</v>
@@ -65532,10 +65562,10 @@
         <v>60</v>
       </c>
       <c r="G266" s="14" t="n">
-        <v>2</v>
+        <v>351</v>
       </c>
       <c r="H266" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I266" s="12" t="inlineStr">
         <is>
@@ -65546,29 +65576,29 @@
     <row r="267">
       <c r="A267" s="12" t="inlineStr">
         <is>
-          <t>Amalia Stana</t>
+          <t>Mona Duca</t>
         </is>
       </c>
       <c r="B267" s="8" t="n">
-        <v>45902</v>
+        <v>45701</v>
       </c>
       <c r="C267" s="8" t="n">
-        <v>45902</v>
+        <v>45701</v>
       </c>
       <c r="D267" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267" s="9" t="n">
         <v>60</v>
       </c>
       <c r="F267" s="10" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G267" s="14" t="n">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="H267" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I267" s="12" t="inlineStr">
         <is>
@@ -65579,14 +65609,14 @@
     <row r="268">
       <c r="A268" s="12" t="inlineStr">
         <is>
-          <t>Roxana Preso</t>
+          <t>Andrada Costescu</t>
         </is>
       </c>
       <c r="B268" s="8" t="n">
-        <v>45847</v>
+        <v>45931</v>
       </c>
       <c r="C268" s="8" t="n">
-        <v>45847</v>
+        <v>45931</v>
       </c>
       <c r="D268" s="11" t="n">
         <v>1</v>
@@ -65598,10 +65628,10 @@
         <v>60</v>
       </c>
       <c r="G268" s="14" t="n">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="H268" s="13" t="n">
-        <v>0.0907</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I268" s="12" t="inlineStr">
         <is>
@@ -65612,29 +65642,29 @@
     <row r="269">
       <c r="A269" s="12" t="inlineStr">
         <is>
-          <t>Alessandra Miruna</t>
+          <t>Amalia Stana</t>
         </is>
       </c>
       <c r="B269" s="8" t="n">
-        <v>45769</v>
+        <v>45902</v>
       </c>
       <c r="C269" s="8" t="n">
-        <v>45769</v>
+        <v>45902</v>
       </c>
       <c r="D269" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E269" s="9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F269" s="10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G269" s="14" t="n">
-        <v>263</v>
+        <v>130</v>
       </c>
       <c r="H269" s="13" t="n">
-        <v>0.032</v>
+        <v>0.09039999999999999</v>
       </c>
       <c r="I269" s="12" t="inlineStr">
         <is>
@@ -65645,14 +65675,14 @@
     <row r="270">
       <c r="A270" s="12" t="inlineStr">
         <is>
-          <t>Petre Cosmin</t>
+          <t>Daria Badescu</t>
         </is>
       </c>
       <c r="B270" s="8" t="n">
-        <v>45814</v>
+        <v>45957</v>
       </c>
       <c r="C270" s="8" t="n">
-        <v>45814</v>
+        <v>45957</v>
       </c>
       <c r="D270" s="11" t="n">
         <v>1</v>
@@ -65664,10 +65694,10 @@
         <v>50</v>
       </c>
       <c r="G270" s="14" t="n">
-        <v>218</v>
+        <v>75</v>
       </c>
       <c r="H270" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I270" s="12" t="inlineStr">
         <is>
@@ -65678,14 +65708,14 @@
     <row r="271">
       <c r="A271" s="12" t="inlineStr">
         <is>
-          <t>Raisa Ghiță</t>
+          <t>Eliza Stoica</t>
         </is>
       </c>
       <c r="B271" s="8" t="n">
-        <v>46013</v>
+        <v>45783</v>
       </c>
       <c r="C271" s="8" t="n">
-        <v>46013</v>
+        <v>45783</v>
       </c>
       <c r="D271" s="11" t="n">
         <v>1</v>
@@ -65697,10 +65727,10 @@
         <v>50</v>
       </c>
       <c r="G271" s="14" t="n">
-        <v>19</v>
+        <v>249</v>
       </c>
       <c r="H271" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I271" s="12" t="inlineStr">
         <is>
@@ -65711,14 +65741,14 @@
     <row r="272">
       <c r="A272" s="12" t="inlineStr">
         <is>
-          <t>Florin Dima</t>
+          <t>Denisa Oana</t>
         </is>
       </c>
       <c r="B272" s="8" t="n">
-        <v>45777</v>
+        <v>46001</v>
       </c>
       <c r="C272" s="8" t="n">
-        <v>45777</v>
+        <v>46001</v>
       </c>
       <c r="D272" s="11" t="n">
         <v>1</v>
@@ -65730,10 +65760,10 @@
         <v>50</v>
       </c>
       <c r="G272" s="14" t="n">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="H272" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I272" s="12" t="inlineStr">
         <is>
@@ -65744,14 +65774,14 @@
     <row r="273">
       <c r="A273" s="12" t="inlineStr">
         <is>
-          <t>Lourdes Maria Oliva Garcia</t>
+          <t>Florin Dima</t>
         </is>
       </c>
       <c r="B273" s="8" t="n">
-        <v>46013</v>
+        <v>45777</v>
       </c>
       <c r="C273" s="8" t="n">
-        <v>46013</v>
+        <v>45777</v>
       </c>
       <c r="D273" s="11" t="n">
         <v>1</v>
@@ -65763,10 +65793,10 @@
         <v>50</v>
       </c>
       <c r="G273" s="14" t="n">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="H273" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I273" s="12" t="inlineStr">
         <is>
@@ -65777,14 +65807,14 @@
     <row r="274">
       <c r="A274" s="12" t="inlineStr">
         <is>
-          <t>Angelica</t>
+          <t>Raisa Ghiță</t>
         </is>
       </c>
       <c r="B274" s="8" t="n">
-        <v>46002</v>
+        <v>46013</v>
       </c>
       <c r="C274" s="8" t="n">
-        <v>46002</v>
+        <v>46013</v>
       </c>
       <c r="D274" s="11" t="n">
         <v>1</v>
@@ -65796,10 +65826,10 @@
         <v>50</v>
       </c>
       <c r="G274" s="14" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H274" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I274" s="12" t="inlineStr">
         <is>
@@ -65810,14 +65840,14 @@
     <row r="275">
       <c r="A275" s="12" t="inlineStr">
         <is>
-          <t>Camelia Marcu</t>
+          <t>Alessandra Miruna</t>
         </is>
       </c>
       <c r="B275" s="8" t="n">
-        <v>46002</v>
+        <v>45769</v>
       </c>
       <c r="C275" s="8" t="n">
-        <v>46002</v>
+        <v>45769</v>
       </c>
       <c r="D275" s="11" t="n">
         <v>1</v>
@@ -65829,10 +65859,10 @@
         <v>50</v>
       </c>
       <c r="G275" s="14" t="n">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="H275" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I275" s="12" t="inlineStr">
         <is>
@@ -65843,14 +65873,14 @@
     <row r="276">
       <c r="A276" s="12" t="inlineStr">
         <is>
-          <t>Rosu Cristina</t>
+          <t>Lourdes Maria Oliva Garcia</t>
         </is>
       </c>
       <c r="B276" s="8" t="n">
-        <v>45663</v>
+        <v>46013</v>
       </c>
       <c r="C276" s="8" t="n">
-        <v>45663</v>
+        <v>46013</v>
       </c>
       <c r="D276" s="11" t="n">
         <v>1</v>
@@ -65862,10 +65892,10 @@
         <v>50</v>
       </c>
       <c r="G276" s="14" t="n">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="H276" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I276" s="12" t="inlineStr">
         <is>
@@ -65876,14 +65906,14 @@
     <row r="277">
       <c r="A277" s="12" t="inlineStr">
         <is>
-          <t>Denisa Oana</t>
+          <t>Petre Cosmin</t>
         </is>
       </c>
       <c r="B277" s="8" t="n">
-        <v>46001</v>
+        <v>45814</v>
       </c>
       <c r="C277" s="8" t="n">
-        <v>46001</v>
+        <v>45814</v>
       </c>
       <c r="D277" s="11" t="n">
         <v>1</v>
@@ -65895,10 +65925,10 @@
         <v>50</v>
       </c>
       <c r="G277" s="14" t="n">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="H277" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I277" s="12" t="inlineStr">
         <is>
@@ -65909,14 +65939,14 @@
     <row r="278">
       <c r="A278" s="12" t="inlineStr">
         <is>
-          <t>Eliza Stoica</t>
+          <t>Angelica</t>
         </is>
       </c>
       <c r="B278" s="8" t="n">
-        <v>45783</v>
+        <v>46002</v>
       </c>
       <c r="C278" s="8" t="n">
-        <v>45783</v>
+        <v>46002</v>
       </c>
       <c r="D278" s="11" t="n">
         <v>1</v>
@@ -65928,10 +65958,10 @@
         <v>50</v>
       </c>
       <c r="G278" s="14" t="n">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="H278" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I278" s="12" t="inlineStr">
         <is>
@@ -65942,14 +65972,14 @@
     <row r="279">
       <c r="A279" s="12" t="inlineStr">
         <is>
-          <t>Daria Badescu</t>
+          <t>Rosu Cristina</t>
         </is>
       </c>
       <c r="B279" s="8" t="n">
-        <v>45957</v>
+        <v>45663</v>
       </c>
       <c r="C279" s="8" t="n">
-        <v>45957</v>
+        <v>45663</v>
       </c>
       <c r="D279" s="11" t="n">
         <v>1</v>
@@ -65961,10 +65991,10 @@
         <v>50</v>
       </c>
       <c r="G279" s="14" t="n">
-        <v>75</v>
+        <v>369</v>
       </c>
       <c r="H279" s="13" t="n">
-        <v>0.032</v>
+        <v>0.0319</v>
       </c>
       <c r="I279" s="12" t="inlineStr">
         <is>
@@ -65975,29 +66005,29 @@
     <row r="280">
       <c r="A280" s="12" t="inlineStr">
         <is>
-          <t>Daiana Florescu</t>
+          <t>Camelia Marcu</t>
         </is>
       </c>
       <c r="B280" s="8" t="n">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C280" s="8" t="n">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="D280" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E280" s="9" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F280" s="10" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G280" s="14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H280" s="13" t="n">
-        <v>0.0089</v>
+        <v>0.0319</v>
       </c>
       <c r="I280" s="12" t="inlineStr">
         <is>
@@ -66008,14 +66038,14 @@
     <row r="281">
       <c r="A281" s="12" t="inlineStr">
         <is>
-          <t>Bianca C</t>
+          <t>Daiana Florescu</t>
         </is>
       </c>
       <c r="B281" s="8" t="n">
-        <v>45682</v>
+        <v>46001</v>
       </c>
       <c r="C281" s="8" t="n">
-        <v>45682</v>
+        <v>46001</v>
       </c>
       <c r="D281" s="11" t="n">
         <v>1</v>
@@ -66027,7 +66057,7 @@
         <v>40</v>
       </c>
       <c r="G281" s="14" t="n">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="H281" s="13" t="n">
         <v>0.0089</v>
@@ -66041,31 +66071,64 @@
     <row r="282">
       <c r="A282" s="12" t="inlineStr">
         <is>
-          <t>Tesnime Stambouli</t>
+          <t>Bianca C</t>
         </is>
       </c>
       <c r="B282" s="8" t="n">
-        <v>45842</v>
+        <v>45682</v>
       </c>
       <c r="C282" s="8" t="n">
-        <v>45842</v>
+        <v>45682</v>
       </c>
       <c r="D282" s="11" t="n">
         <v>1</v>
       </c>
       <c r="E282" s="9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F282" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G282" s="14" t="n">
+        <v>350</v>
+      </c>
+      <c r="H282" s="13" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="I282" s="12" t="inlineStr">
+        <is>
+          <t>New/Low</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="12" t="inlineStr">
+        <is>
+          <t>Tesnime Stambouli</t>
+        </is>
+      </c>
+      <c r="B283" s="8" t="n">
+        <v>45842</v>
+      </c>
+      <c r="C283" s="8" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D283" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="F282" s="10" t="n">
+      <c r="F283" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="G282" s="14" t="n">
+      <c r="G283" s="14" t="n">
         <v>190</v>
       </c>
-      <c r="H282" s="13" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="I282" s="12" t="inlineStr">
+      <c r="H283" s="13" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="I283" s="12" t="inlineStr">
         <is>
           <t>New/Low</t>
         </is>
@@ -66161,7 +66224,7 @@
         </is>
       </c>
       <c r="G2" s="13" t="n">
-        <v>0.1709</v>
+        <v>0.1706</v>
       </c>
     </row>
     <row r="3">
@@ -66171,16 +66234,16 @@
         </is>
       </c>
       <c r="B3" s="11" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>18480</v>
+        <v>18750</v>
       </c>
       <c r="D3" s="10" t="n">
-        <v>264</v>
+        <v>264.08</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" s="12" t="inlineStr">
         <is>
@@ -66188,7 +66251,7 @@
         </is>
       </c>
       <c r="G3" s="13" t="n">
-        <v>0.1521</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="4">
@@ -66215,7 +66278,7 @@
         </is>
       </c>
       <c r="G4" s="13" t="n">
-        <v>0.1288</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="5">
@@ -66242,7 +66305,7 @@
         </is>
       </c>
       <c r="G5" s="13" t="n">
-        <v>0.076</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="6">
@@ -66269,7 +66332,7 @@
         </is>
       </c>
       <c r="G6" s="13" t="n">
-        <v>0.0756</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="7">
@@ -66296,7 +66359,7 @@
         </is>
       </c>
       <c r="G7" s="13" t="n">
-        <v>0.0547</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="8">
@@ -66323,7 +66386,7 @@
         </is>
       </c>
       <c r="G8" s="13" t="n">
-        <v>0.0475</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="9">
@@ -66350,7 +66413,7 @@
         </is>
       </c>
       <c r="G9" s="13" t="n">
-        <v>0.0402</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="10">
@@ -66377,7 +66440,7 @@
         </is>
       </c>
       <c r="G10" s="13" t="n">
-        <v>0.0379</v>
+        <v>0.0378</v>
       </c>
     </row>
     <row r="11">
@@ -66431,7 +66494,7 @@
         </is>
       </c>
       <c r="G12" s="13" t="n">
-        <v>0.0238</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="13">
@@ -66485,7 +66548,7 @@
         </is>
       </c>
       <c r="G14" s="13" t="n">
-        <v>0.0198</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="15">
@@ -66539,7 +66602,7 @@
         </is>
       </c>
       <c r="G16" s="13" t="n">
-        <v>0.0182</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="17">
@@ -66728,7 +66791,7 @@
         </is>
       </c>
       <c r="G23" s="13" t="n">
-        <v>0.0058</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="24">
@@ -66944,7 +67007,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
@@ -67017,10 +67080,10 @@
         </is>
       </c>
       <c r="B2" s="11" t="n">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>121500</v>
+        <v>121770</v>
       </c>
       <c r="D2" s="10" t="n">
         <v/>
@@ -67063,7 +67126,7 @@
         <v>61.19613670133729</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>41185</v>
@@ -67100,7 +67163,7 @@
         <v>50.38175046554935</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="F4" s="9" t="n">
         <v>27055</v>
@@ -67128,34 +67191,34 @@
         </is>
       </c>
       <c r="B5" s="11" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>24210</v>
+        <v>24480</v>
       </c>
       <c r="D5" s="10" t="n">
-        <v>269</v>
+        <v>269.010989010989</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.199</v>
+        <v>0.201</v>
       </c>
       <c r="F5" s="9" t="n">
-        <v>24210</v>
+        <v>24480</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>269</v>
+        <v>269.01</v>
       </c>
       <c r="H5" s="11" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="J5" s="9" t="n">
-        <v>417.41</v>
+        <v>414.92</v>
       </c>
       <c r="K5" s="13" t="n">
-        <v>0.2759</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="6">
@@ -67174,7 +67237,7 @@
         <v>87.52380952380952</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>9190</v>
@@ -67322,7 +67385,7 @@
         <v>350</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>1400</v>
